--- a/client/public/Qualms-forcast-summary.xlsx
+++ b/client/public/Qualms-forcast-summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh5\Dropbox\C4ptin_App\Josh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh5\OneDrive\Documents\qualms\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF93B39-C756-43FD-A37E-8203548C1491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7C8B1B-B5FF-4FC7-AF34-CE060083A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="147" windowWidth="16267" windowHeight="13533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth Forecast" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
   <si>
     <t>Year 1</t>
   </si>
@@ -333,9 +333,6 @@
     <t>Value of Stake in Year 5</t>
   </si>
   <si>
-    <t>Investment Needed</t>
-  </si>
-  <si>
     <t>Fund allocation for first 2 years</t>
   </si>
   <si>
@@ -403,6 +400,15 @@
   </si>
   <si>
     <t>Sales Team</t>
+  </si>
+  <si>
+    <t>Seed (start yr1)</t>
+  </si>
+  <si>
+    <t>Yr 2 Valuation</t>
+  </si>
+  <si>
+    <t>Investment Round 2 (end of yr 2)</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1387,7 +1393,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,6 +1441,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -1726,8 +1733,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12614142851886589"/>
-          <c:y val="0.12199145966797836"/>
+          <c:x val="0.14682324028002536"/>
+          <c:y val="0.17312228493412715"/>
           <c:w val="0.85231753398517274"/>
           <c:h val="0.757456874255234"/>
         </c:manualLayout>
@@ -1796,13 +1803,13 @@
                   <c:v>99066.3046875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232052.50078124998</c:v>
+                  <c:v>245852.50078124998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>546560.75179687492</c:v>
+                  <c:v>614060.75179687492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1257339.7291328122</c:v>
+                  <c:v>1405339.7291328122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,13 +1880,13 @@
                   <c:v>-47255.746675781251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-21319.317354296873</c:v>
+                  <c:v>-7705.6173542968754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122875.24236894486</c:v>
+                  <c:v>176812.12986894487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>513229.9596985731</c:v>
+                  <c:v>631491.5796985731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,8 +2037,8 @@
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="1.6806403513799466E-2"/>
-                <c:y val="0.38073823773915677"/>
+                <c:x val="8.3303392758422405E-3"/>
+                <c:y val="0.37215829761782515"/>
               </c:manualLayout>
             </c:layout>
             <c:spPr>
@@ -2078,8 +2085,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29536364759469796"/>
-          <c:y val="0.94086659619818969"/>
+          <c:x val="0.29536360396308636"/>
+          <c:y val="0.88158121164295211"/>
           <c:w val="0.35048168728603935"/>
           <c:h val="5.132819557667434E-2"/>
         </c:manualLayout>
@@ -2841,7 +2848,7 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16974.086343292965</c:v>
+                  <c:v>18972.086343292962</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>192</c:v>
@@ -3801,13 +3808,13 @@
                   <c:v>117992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178424.70876054687</c:v>
+                  <c:v>178611.00876054689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>253670.57014925781</c:v>
+                  <c:v>254581.82014925781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368516.08634329296</c:v>
+                  <c:v>370514.08634329296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,15 +5274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>160019</xdr:colOff>
+      <xdr:colOff>160017</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>52733</xdr:rowOff>
+      <xdr:rowOff>52732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1572381</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5305,15 +5312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1216782</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>193523</xdr:rowOff>
+      <xdr:colOff>1628020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12096</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69549</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235858</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5328,8 +5335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5014686" y="2074333"/>
-          <a:ext cx="3343124" cy="2240645"/>
+          <a:off x="5425924" y="2588381"/>
+          <a:ext cx="4885267" cy="2676073"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5361,16 +5368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2153342</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6512</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1034531</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990081</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>155284</xdr:rowOff>
+      <xdr:colOff>2145176</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5384,9 +5391,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19580415">
-          <a:off x="5951246" y="2879131"/>
-          <a:ext cx="1110645" cy="330200"/>
+        <a:xfrm rot="19890830">
+          <a:off x="7106341" y="3598799"/>
+          <a:ext cx="1110645" cy="348344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5562,176 +5569,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="B7">
-            <v>8.4771634728195128E-2</v>
-          </cell>
-          <cell r="C7">
-            <v>0.15312837977261137</v>
-          </cell>
-          <cell r="D7">
-            <v>0.28537598930482772</v>
-          </cell>
-          <cell r="E7">
-            <v>0.44130202131141433</v>
-          </cell>
-          <cell r="F7">
-            <v>0.61673445408943428</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.80532511447382493</v>
-          </cell>
-          <cell r="C8">
-            <v>0.74454830915225645</v>
-          </cell>
-          <cell r="D8">
-            <v>0.61314263626005061</v>
-          </cell>
-          <cell r="E8">
-            <v>0.48055482296202567</v>
-          </cell>
-          <cell r="F8">
-            <v>0.3169900622385588</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.10990325079798001</v>
-          </cell>
-          <cell r="C9">
-            <v>0.10232331107513219</v>
-          </cell>
-          <cell r="D9">
-            <v>0.1014813744351217</v>
-          </cell>
-          <cell r="E9">
-            <v>7.8143155726559999E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>6.6275483672006988E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Year 5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Executive Board</v>
-          </cell>
-          <cell r="C40">
-            <v>288000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Software Developers</v>
-          </cell>
-          <cell r="C41">
-            <v>237000</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Customer Support</v>
-          </cell>
-          <cell r="C42">
-            <v>60000</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Admin Staff</v>
-          </cell>
-          <cell r="C43">
-            <v>32000</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Employee Benefits</v>
-          </cell>
-          <cell r="C44">
-            <v>42000</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Office Rent (inc Utilities)</v>
-          </cell>
-          <cell r="C45">
-            <v>36000</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Office Equipment</v>
-          </cell>
-          <cell r="C46">
-            <v>7200</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Marketing</v>
-          </cell>
-          <cell r="C47">
-            <v>50000</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>App Maintenance</v>
-          </cell>
-          <cell r="C48">
-            <v>34950</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Research &amp; Development</v>
-          </cell>
-          <cell r="C49">
-            <v>54000</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Other</v>
-          </cell>
-          <cell r="C50">
-            <v>10000</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Insurance</v>
-          </cell>
-          <cell r="C51">
-            <v>8750</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Accounting Services</v>
-          </cell>
-          <cell r="C52">
-            <v>18500</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Legal Services</v>
-          </cell>
-          <cell r="C53">
-            <v>22000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="N3" t="str">
@@ -5757,11 +5595,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="35">
-          <cell r="V35">
-            <v>4312.5</v>
-          </cell>
-        </row>
         <row r="39">
           <cell r="W39">
             <v>657865.67081083194</v>
@@ -6167,10 +6000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6240,15 +6073,15 @@
       </c>
       <c r="B4" s="100">
         <f>'P&amp;L Statement'!AB12</f>
-        <v>232052.50078124998</v>
+        <v>245852.50078124998</v>
       </c>
       <c r="C4" s="100">
         <f>'P&amp;L Statement'!AB41</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="D4" s="106">
         <f>Table1[[#This Row],[EBITDA]]/Table1[[#This Row],[Revenue]]</f>
-        <v>-9.1872818791097849E-2</v>
+        <v>-3.1342440405570798E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
@@ -6257,15 +6090,15 @@
       </c>
       <c r="B5" s="100">
         <f>'P&amp;L Statement'!AG12</f>
-        <v>546560.75179687492</v>
+        <v>614060.75179687492</v>
       </c>
       <c r="C5" s="100">
         <f>'P&amp;L Statement'!AG41</f>
-        <v>122875.24236894486</v>
+        <v>176812.12986894487</v>
       </c>
       <c r="D5" s="106">
         <f>Table1[[#This Row],[EBITDA]]/Table1[[#This Row],[Revenue]]</f>
-        <v>0.22481534205480327</v>
+        <v>0.28793914828712669</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
@@ -6274,15 +6107,15 @@
       </c>
       <c r="B6" s="100">
         <f>'P&amp;L Statement'!AL12</f>
-        <v>1257339.7291328122</v>
+        <v>1405339.7291328122</v>
       </c>
       <c r="C6" s="100">
         <f>'P&amp;L Statement'!AL41</f>
-        <v>513229.9596985731</v>
+        <v>631491.5796985731</v>
       </c>
       <c r="D6" s="106">
         <f>Table1[[#This Row],[EBITDA]]/Table1[[#This Row],[Revenue]]</f>
-        <v>0.40818718108314928</v>
+        <v>0.44935154582746001</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.6">
@@ -6290,7 +6123,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="109"/>
     </row>
@@ -6300,7 +6133,7 @@
       </c>
       <c r="B10" s="110">
         <f>C6</f>
-        <v>513229.9596985731</v>
+        <v>631491.5796985731</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -6309,112 +6142,153 @@
       </c>
       <c r="B11" s="110">
         <f>B10*B9</f>
-        <v>5132299.5969857313</v>
+        <v>7577898.9563828772</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="112">
-        <f>B15/B17</f>
-        <v>3.9479227669121011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+      <c r="B13" s="114">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="111" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="113">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="112">
+        <f>B16/B13</f>
+        <v>28.417121086435788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B16" s="231">
         <f>B11*B14</f>
-        <v>513229.95969857316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1136684.8434574315</v>
+      </c>
       <c r="H16" s="109"/>
     </row>
-    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="111" t="s">
+    <row r="18" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="115">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="230">
+        <f>'P&amp;L Statement'!W12*'Growth Forecast'!B9</f>
+        <v>1188795.65625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="113">
+        <f>(B18/B19)</f>
+        <v>8.4118746122815835E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="112">
+        <f>B22/B18</f>
+        <v>6.3744335845632234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="231">
+        <f>B11*B20</f>
+        <v>637443.35845632234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="114">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="215" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="215"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="115">
+      <c r="B24" s="214"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="115">
         <f>SUM('P&amp;L Statement'!W22:'P&amp;L Statement'!W27)</f>
         <v>112500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="115">
+    <row r="26" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="115">
         <f>SUM('P&amp;L Statement'!W29:'P&amp;L Statement'!W30)</f>
         <v>22300</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="116" t="s">
+    <row r="27" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="117">
+        <f>B13-B25</f>
+        <v>-72500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="117">
-        <f>B17-B20</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="118">
+      <c r="B29" s="118">
         <f>_xlfn.RRI(5,B2,B6)</f>
-        <v>1.4179773498318657</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.5">
-      <c r="D36" s="119"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.5">
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
+        <v>1.4723956193644563</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.5">
+      <c r="D37" s="119"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.5">
-      <c r="E43" s="121">
-        <f>E42*12.32</f>
-        <v>0</v>
-      </c>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.5">
-      <c r="E44" s="121"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B49" s="100"/>
+      <c r="E44" s="121">
+        <f>E43*12.32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.5">
+      <c r="E45" s="121"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6497,7 +6371,7 @@
       </c>
       <c r="I2" s="125"/>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2" s="124"/>
       <c r="Q2" s="124"/>
@@ -6506,7 +6380,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="185">
         <f>SUM(B18:B19,B21,B24:B26,B29:B30, B28)</f>
@@ -6518,19 +6392,19 @@
       </c>
       <c r="D3" s="185">
         <f t="shared" si="1"/>
-        <v>178424.70876054687</v>
+        <v>178611.00876054689</v>
       </c>
       <c r="E3" s="185">
         <f t="shared" si="1"/>
-        <v>253670.57014925781</v>
+        <v>254581.82014925781</v>
       </c>
       <c r="F3" s="185">
         <f t="shared" si="1"/>
-        <v>368516.08634329296</v>
+        <v>370514.08634329296</v>
       </c>
       <c r="I3" s="126"/>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" s="124"/>
       <c r="Q3" s="124"/>
@@ -6539,7 +6413,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="186" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="187">
         <f>B20+B23+B27</f>
@@ -6608,15 +6482,15 @@
       </c>
       <c r="D7" s="127">
         <f t="shared" ref="D7:F7" si="3">D2/SUM(D$2:D$4)</f>
-        <v>1.9473463777387567E-2</v>
+        <v>1.9455687029800408E-2</v>
       </c>
       <c r="E7" s="127">
         <f t="shared" si="3"/>
-        <v>2.6450904301093956E-2</v>
+        <v>2.6373346106827313E-2</v>
       </c>
       <c r="F7" s="127">
         <f t="shared" si="3"/>
-        <v>3.7290214609592323E-2</v>
+        <v>3.7135775770373351E-2</v>
       </c>
       <c r="L7" s="124"/>
       <c r="Q7" s="124"/>
@@ -6625,7 +6499,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="127">
         <f t="shared" ref="B8:F9" si="4">B3/SUM(B$2:B$4)</f>
@@ -6637,15 +6511,15 @@
       </c>
       <c r="D8" s="127">
         <f t="shared" si="4"/>
-        <v>0.87508023766611132</v>
+        <v>0.87519427321258847</v>
       </c>
       <c r="E8" s="127">
         <f t="shared" si="4"/>
-        <v>0.81864384070360885</v>
+        <v>0.81917560536745737</v>
       </c>
       <c r="F8" s="127">
         <f t="shared" si="4"/>
-        <v>0.76705233152288865</v>
+        <v>0.7680170931338105</v>
       </c>
       <c r="L8" s="124"/>
       <c r="Q8" s="124"/>
@@ -6654,7 +6528,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="127">
         <f t="shared" si="4"/>
@@ -6666,15 +6540,15 @@
       </c>
       <c r="D9" s="127">
         <f t="shared" si="4"/>
-        <v>0.10544629855650116</v>
+        <v>0.10535003975761116</v>
       </c>
       <c r="E9" s="127">
         <f t="shared" si="4"/>
-        <v>0.15490525499529728</v>
+        <v>0.15445104852571534</v>
       </c>
       <c r="F9" s="127">
         <f t="shared" si="4"/>
-        <v>0.19565745386751909</v>
+        <v>0.19484713109581625</v>
       </c>
       <c r="L9" s="124"/>
       <c r="Q9" s="124"/>
@@ -6995,7 +6869,7 @@
     </row>
     <row r="22" spans="1:27" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A22" s="189" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="190">
         <f>'P&amp;L Statement'!R26</f>
@@ -7181,15 +7055,15 @@
       </c>
       <c r="D28" s="191">
         <f>'P&amp;L Statement'!AB35</f>
-        <v>3132.7087605468751</v>
+        <v>3319.0087605468743</v>
       </c>
       <c r="E28" s="192">
         <f>'P&amp;L Statement'!AG35</f>
-        <v>7378.570149257811</v>
+        <v>8289.8201492578119</v>
       </c>
       <c r="F28" s="192">
         <f>'P&amp;L Statement'!AL35</f>
-        <v>16974.086343292965</v>
+        <v>18972.086343292962</v>
       </c>
       <c r="L28"/>
       <c r="Q28"/>
@@ -7269,15 +7143,15 @@
       </c>
       <c r="D31" s="141">
         <f>'P&amp;L Statement'!AB38</f>
-        <v>235924.70876054687</v>
+        <v>236111.00876054689</v>
       </c>
       <c r="E31" s="141">
         <f>'P&amp;L Statement'!AG38</f>
-        <v>355670.57014925784</v>
+        <v>356581.82014925784</v>
       </c>
       <c r="F31" s="141">
         <f>'P&amp;L Statement'!AL38</f>
-        <v>534516.08634329296</v>
+        <v>536514.08634329296</v>
       </c>
       <c r="L31"/>
       <c r="Q31"/>
@@ -7299,15 +7173,15 @@
       </c>
       <c r="D32" s="143">
         <f>'P&amp;L Statement'!AB39</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="E32" s="141">
         <f>'P&amp;L Statement'!AG39</f>
-        <v>151697.83008511711</v>
+        <v>218286.58008511714</v>
       </c>
       <c r="F32" s="141">
         <f>'P&amp;L Statement'!AL39</f>
-        <v>633617.2341957693</v>
+        <v>779619.2341957693</v>
       </c>
       <c r="L32"/>
       <c r="Q32"/>
@@ -7332,11 +7206,11 @@
       </c>
       <c r="E33" s="141">
         <f>'P&amp;L Statement'!AG40</f>
-        <v>28822.587716172249</v>
+        <v>41474.450216172256</v>
       </c>
       <c r="F33" s="141">
         <f>'P&amp;L Statement'!AL40</f>
-        <v>120387.27449719617</v>
+        <v>148127.65449719617</v>
       </c>
       <c r="L33"/>
       <c r="Q33"/>
@@ -7358,15 +7232,15 @@
       </c>
       <c r="D34" s="148">
         <f>'P&amp;L Statement'!AB41</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="E34" s="141">
         <f>'P&amp;L Statement'!AG41</f>
-        <v>122875.24236894486</v>
+        <v>176812.12986894487</v>
       </c>
       <c r="F34" s="141">
         <f>'P&amp;L Statement'!AL41</f>
-        <v>513229.9596985731</v>
+        <v>631491.5796985731</v>
       </c>
       <c r="L34"/>
       <c r="Q34"/>
@@ -7476,7 +7350,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="189" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="190">
         <f t="shared" si="5"/>
@@ -7610,7 +7484,7 @@
       </c>
       <c r="C48" s="192">
         <f t="shared" si="8"/>
-        <v>16974.086343292965</v>
+        <v>18972.086343292962</v>
       </c>
       <c r="I48" s="102"/>
       <c r="L48"/>
@@ -7704,9 +7578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP31" sqref="AP31"/>
+      <selection pane="topRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7731,111 +7605,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="222"/>
-      <c r="B1" s="225" t="s">
+      <c r="A1" s="221"/>
+      <c r="B1" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="227"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="95"/>
-      <c r="F1" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="219" t="s">
+      <c r="F1" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="219" t="s">
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="219" t="s">
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="221"/>
-      <c r="AH1" s="216" t="s">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="220"/>
+      <c r="AH1" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="218"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="217"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="223"/>
-      <c r="B2" s="228" t="s">
+      <c r="A2" s="222"/>
+      <c r="B2" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
       <c r="E2" s="96"/>
-      <c r="F2" s="219" t="s">
+      <c r="F2" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="219" t="s">
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="219" t="s">
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="219" t="s">
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="221"/>
-      <c r="AH2" s="216" t="s">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="217"/>
-      <c r="AJ2" s="217"/>
-      <c r="AK2" s="217"/>
-      <c r="AL2" s="218"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
     </row>
     <row r="3" spans="1:42" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="224"/>
+      <c r="A3" s="223"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7950,15 +7824,14 @@
     </row>
     <row r="4" spans="1:42" s="183" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
       <c r="D4" s="176"/>
       <c r="E4" s="177"/>
       <c r="F4" s="178">
-        <f>'Growth Forecast'!B17</f>
-        <v>130000</v>
+        <v>40000</v>
       </c>
       <c r="G4" s="176"/>
       <c r="H4" s="176"/>
@@ -7972,7 +7845,9 @@
       <c r="P4" s="176"/>
       <c r="Q4" s="180"/>
       <c r="R4" s="181"/>
-      <c r="S4" s="176"/>
+      <c r="S4" s="178">
+        <v>100000</v>
+      </c>
       <c r="T4" s="176"/>
       <c r="U4" s="176"/>
       <c r="V4" s="180"/>
@@ -8378,53 +8253,62 @@
       <c r="S9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="73"/>
-      <c r="X9" s="15">
-        <v>600</v>
-      </c>
+      <c r="X9" s="15"/>
       <c r="Y9" s="15">
-        <v>1200</v>
+        <f>1200*5</f>
+        <v>6000</v>
       </c>
       <c r="Z9" s="15">
-        <v>1200</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>1200</v>
+        <f t="shared" ref="Z9:AA9" si="3">1200*5</f>
+        <v>6000</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="AB9" s="73">
         <f>SUM(X9:AA9)</f>
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="AC9" s="101">
-        <v>4500</v>
+        <f>5*4500</f>
+        <v>22500</v>
       </c>
       <c r="AD9" s="101">
-        <v>6000</v>
+        <f t="shared" ref="AD9:AF9" si="4">5*4500</f>
+        <v>22500</v>
       </c>
       <c r="AE9" s="101">
-        <v>6000</v>
-      </c>
-      <c r="AF9" s="214">
-        <v>6000</v>
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="AF9" s="101">
+        <f t="shared" si="4"/>
+        <v>22500</v>
       </c>
       <c r="AG9" s="73">
         <f>SUM(AC9:AF9)</f>
-        <v>22500</v>
+        <v>90000</v>
       </c>
       <c r="AH9" s="101">
-        <v>10000</v>
+        <f>5*10000</f>
+        <v>50000</v>
       </c>
       <c r="AI9" s="101">
-        <v>12000</v>
+        <f t="shared" ref="AI9:AK9" si="5">5*10000</f>
+        <v>50000</v>
       </c>
       <c r="AJ9" s="101">
-        <v>15000</v>
-      </c>
-      <c r="AK9" s="214">
-        <v>15000</v>
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
+      <c r="AK9" s="101">
+        <f t="shared" si="5"/>
+        <v>50000</v>
       </c>
       <c r="AL9" s="73">
         <f>SUM(AH9:AK9)</f>
-        <v>52000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.5">
@@ -8586,51 +8470,51 @@
         <v>0</v>
       </c>
       <c r="F11" s="90">
-        <f t="shared" ref="F11:Q11" si="3">F7*$B60</f>
+        <f t="shared" ref="F11:Q11" si="6">F7*$B60</f>
         <v>100.35636361757059</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>143.36623373938659</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240.65046377682745</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>380.94456393608436</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>479.25283850023521</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>642.07591824710994</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>963.62589963401979</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1276.9835248072504</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1787.9817436354929</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2433.1297954627321</v>
       </c>
       <c r="P11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3015.8111311606681</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3748.0029677582493</v>
       </c>
       <c r="R11" s="14">
@@ -8729,11 +8613,11 @@
         <v>0</v>
       </c>
       <c r="C12" s="18">
-        <f t="shared" ref="C12:V12" si="4">SUM(C10:C11)</f>
+        <f t="shared" ref="C12:V12" si="7">SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E12" s="18">
@@ -8741,51 +8625,51 @@
         <v>0</v>
       </c>
       <c r="F12" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100.35636361757059</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>143.36623373938659</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>240.65046377682745</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>380.94456393608436</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>479.25283850023521</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>642.07591824710994</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>963.62589963401979</v>
       </c>
       <c r="M12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1276.9835248072504</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1787.9817436354929</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2433.1297954627321</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3015.8111311606681</v>
       </c>
       <c r="Q12" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3748.0029677582493</v>
       </c>
       <c r="R12" s="19">
@@ -8793,19 +8677,19 @@
         <v>15212.181444275628</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18893.2421875</v>
       </c>
       <c r="T12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21686.15625</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25629.09375</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32857.8125</v>
       </c>
       <c r="W12" s="74">
@@ -8814,63 +8698,63 @@
       </c>
       <c r="X12" s="18">
         <f>SUM(X9:X11)</f>
-        <v>44054.457031249993</v>
+        <v>43454.457031249993</v>
       </c>
       <c r="Y12" s="18">
-        <f t="shared" ref="Y12:AA12" si="5">SUM(Y9:Y11)</f>
-        <v>51078.159375000003</v>
+        <f t="shared" ref="Y12:AA12" si="8">SUM(Y9:Y11)</f>
+        <v>55878.159375000003</v>
       </c>
       <c r="Z12" s="18">
-        <f t="shared" si="5"/>
-        <v>60146.915625000001</v>
+        <f t="shared" si="8"/>
+        <v>64946.915625000001</v>
       </c>
       <c r="AA12" s="19">
-        <f t="shared" si="5"/>
-        <v>76772.96875</v>
+        <f t="shared" si="8"/>
+        <v>81572.96875</v>
       </c>
       <c r="AB12" s="74">
         <f>SUM(AB9:AB11)</f>
-        <v>232052.50078124998</v>
+        <v>245852.50078124998</v>
       </c>
       <c r="AC12" s="18">
         <f>SUM(AC9:AC11)</f>
-        <v>104445.25117187497</v>
+        <v>122445.25117187497</v>
       </c>
       <c r="AD12" s="18">
-        <f t="shared" ref="AD12:AF12" si="6">SUM(AD9:AD11)</f>
-        <v>120719.76656250001</v>
+        <f t="shared" ref="AD12:AF12" si="9">SUM(AD9:AD11)</f>
+        <v>137219.76656250001</v>
       </c>
       <c r="AE12" s="18">
-        <f t="shared" si="6"/>
-        <v>141577.90593749995</v>
+        <f t="shared" si="9"/>
+        <v>158077.90593749995</v>
       </c>
       <c r="AF12" s="19">
-        <f t="shared" si="6"/>
-        <v>179817.82812499997</v>
+        <f t="shared" si="9"/>
+        <v>196317.82812499997</v>
       </c>
       <c r="AG12" s="74">
         <f>SUM(AG9:AG11)</f>
-        <v>546560.75179687492</v>
+        <v>614060.75179687492</v>
       </c>
       <c r="AH12" s="18">
         <f>SUM(AH9:AH11)</f>
-        <v>239874.07769531242</v>
+        <v>279874.07769531239</v>
       </c>
       <c r="AI12" s="18">
-        <f t="shared" ref="AI12:AK12" si="7">SUM(AI9:AI11)</f>
-        <v>275855.46309374995</v>
+        <f t="shared" ref="AI12:AK12" si="10">SUM(AI9:AI11)</f>
+        <v>313855.46309374995</v>
       </c>
       <c r="AJ12" s="18">
-        <f t="shared" si="7"/>
-        <v>326829.18365624989</v>
+        <f t="shared" si="10"/>
+        <v>361829.18365624989</v>
       </c>
       <c r="AK12" s="19">
-        <f t="shared" si="7"/>
-        <v>414781.0046874999</v>
+        <f t="shared" si="10"/>
+        <v>449781.0046874999</v>
       </c>
       <c r="AL12" s="74">
         <f>SUM(AL9:AL11)</f>
-        <v>1257339.7291328122</v>
+        <v>1405339.7291328122</v>
       </c>
       <c r="AM12" s="80"/>
     </row>
@@ -8895,7 +8779,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:R17" si="8">SUM(F13:Q13)</f>
+        <f t="shared" ref="R13:R17" si="11">SUM(F13:Q13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="6"/>
@@ -8948,55 +8832,55 @@
         <v>0</v>
       </c>
       <c r="F14" s="90">
-        <f t="shared" ref="F14:Q14" si="9">60+(SUM(F$6:F$7)*$B$69)</f>
+        <f t="shared" ref="F14:Q14" si="12">60+(SUM(F$6:F$7)*$B$69)</f>
         <v>61.673721874876094</v>
       </c>
       <c r="G14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>62.391031249822994</v>
       </c>
       <c r="H14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>64.013516740774307</v>
       </c>
       <c r="I14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>66.35331160667252</v>
       </c>
       <c r="J14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>67.992875892265431</v>
       </c>
       <c r="K14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>70.708404240278682</v>
       </c>
       <c r="L14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>76.071145757738819</v>
       </c>
       <c r="M14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>81.297256918066211</v>
       </c>
       <c r="N14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>89.81957544422103</v>
       </c>
       <c r="O14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>100.5792160684245</v>
       </c>
       <c r="P14" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>110.29705021949079</v>
       </c>
       <c r="Q14" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>122.50838838822963</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>973.70549440086097</v>
       </c>
       <c r="S14" s="90">
@@ -9016,7 +8900,7 @@
         <v>294.375</v>
       </c>
       <c r="W14" s="73">
-        <f t="shared" ref="W14:W17" si="10">SUM(S14:V14)</f>
+        <f t="shared" ref="W14:W17" si="13">SUM(S14:V14)</f>
         <v>946.640625</v>
       </c>
       <c r="X14" s="69">
@@ -9036,7 +8920,7 @@
         <v>599.0625</v>
       </c>
       <c r="AB14" s="73">
-        <f t="shared" ref="AB14:AB17" si="11">SUM(X14:AA14)</f>
+        <f t="shared" ref="AB14:AB17" si="14">SUM(X14:AA14)</f>
         <v>1865.2734375</v>
       </c>
       <c r="AC14" s="69">
@@ -9056,7 +8940,7 @@
         <v>1299.8437499999998</v>
       </c>
       <c r="AG14" s="73">
-        <f t="shared" ref="AG14:AG17" si="12">SUM(AC14:AF14)</f>
+        <f t="shared" ref="AG14:AG17" si="15">SUM(AC14:AF14)</f>
         <v>3978.12890625</v>
       </c>
       <c r="AH14" s="69">
@@ -9076,7 +8960,7 @@
         <v>2911.6406249999991</v>
       </c>
       <c r="AL14" s="73">
-        <f t="shared" ref="AL14:AL17" si="13">SUM(AH14:AK14)</f>
+        <f t="shared" ref="AL14:AL17" si="16">SUM(AH14:AK14)</f>
         <v>8837.6964843749975</v>
       </c>
       <c r="AM14" s="80"/>
@@ -9102,55 +8986,55 @@
         <v>181.8</v>
       </c>
       <c r="F15" s="90">
-        <f t="shared" ref="F15:Q15" si="14">60+(SUM(F$6:F$7)*$B$70)</f>
+        <f t="shared" ref="F15:Q15" si="17">60+(SUM(F$6:F$7)*$B$70)</f>
         <v>60.836860937438047</v>
       </c>
       <c r="G15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>61.195515624911494</v>
       </c>
       <c r="H15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>62.006758370387153</v>
       </c>
       <c r="I15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>63.17665580333626</v>
       </c>
       <c r="J15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>63.996437946132716</v>
       </c>
       <c r="K15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>65.354202120139348</v>
       </c>
       <c r="L15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.035572878869417</v>
       </c>
       <c r="M15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>70.648628459033105</v>
       </c>
       <c r="N15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>74.909787722110508</v>
       </c>
       <c r="O15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>80.28960803421225</v>
       </c>
       <c r="P15" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>85.148525109745393</v>
       </c>
       <c r="Q15" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>91.254194194114817</v>
       </c>
       <c r="R15" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>846.8527472004306</v>
       </c>
       <c r="S15" s="90">
@@ -9170,7 +9054,7 @@
         <v>177.1875</v>
       </c>
       <c r="W15" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>593.3203125</v>
       </c>
       <c r="X15" s="69">
@@ -9190,7 +9074,7 @@
         <v>329.53125</v>
       </c>
       <c r="AB15" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1052.63671875</v>
       </c>
       <c r="AC15" s="69">
@@ -9210,7 +9094,7 @@
         <v>679.92187499999989</v>
       </c>
       <c r="AG15" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2109.064453125</v>
       </c>
       <c r="AH15" s="69">
@@ -9230,7 +9114,7 @@
         <v>1485.8203124999995</v>
       </c>
       <c r="AL15" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4538.8482421874987</v>
       </c>
       <c r="AM15" s="80"/>
@@ -9253,55 +9137,55 @@
         <v>0</v>
       </c>
       <c r="F16" s="90">
-        <f t="shared" ref="F16:Q16" si="15">60+(SUM(F$6:F$7)*$B$71)</f>
+        <f t="shared" ref="F16:Q16" si="18">60+(SUM(F$6:F$7)*$B$71)</f>
         <v>60.836860937438047</v>
       </c>
       <c r="G16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>61.195515624911494</v>
       </c>
       <c r="H16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>62.006758370387153</v>
       </c>
       <c r="I16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>63.17665580333626</v>
       </c>
       <c r="J16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>63.996437946132716</v>
       </c>
       <c r="K16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>65.354202120139348</v>
       </c>
       <c r="L16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>68.035572878869417</v>
       </c>
       <c r="M16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>70.648628459033105</v>
       </c>
       <c r="N16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>74.909787722110508</v>
       </c>
       <c r="O16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>80.28960803421225</v>
       </c>
       <c r="P16" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>85.148525109745393</v>
       </c>
       <c r="Q16" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>91.254194194114817</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>846.8527472004306</v>
       </c>
       <c r="S16" s="90">
@@ -9321,7 +9205,7 @@
         <v>177.1875</v>
       </c>
       <c r="W16" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>593.3203125</v>
       </c>
       <c r="X16" s="69">
@@ -9341,7 +9225,7 @@
         <v>329.53125</v>
       </c>
       <c r="AB16" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1052.63671875</v>
       </c>
       <c r="AC16" s="69">
@@ -9361,7 +9245,7 @@
         <v>679.92187499999989</v>
       </c>
       <c r="AG16" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2109.064453125</v>
       </c>
       <c r="AH16" s="69">
@@ -9381,7 +9265,7 @@
         <v>1485.8203124999995</v>
       </c>
       <c r="AL16" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4538.8482421874987</v>
       </c>
       <c r="AM16" s="80"/>
@@ -9411,51 +9295,51 @@
         <v>108.79192186694611</v>
       </c>
       <c r="G17" s="90">
-        <f t="shared" ref="G17:Q17" si="16">(G6-F6)*50*$B$79</f>
+        <f t="shared" ref="G17:Q17" si="19">(G6-F6)*50*$B$79</f>
         <v>53.79820312101733</v>
       </c>
       <c r="H17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>121.68641182134867</v>
       </c>
       <c r="I17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>175.48461494236602</v>
       </c>
       <c r="J17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>122.96732141946816</v>
       </c>
       <c r="K17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>203.6646261009941</v>
       </c>
       <c r="L17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>402.20561380951028</v>
       </c>
       <c r="M17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>391.95833702455474</v>
       </c>
       <c r="N17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>639.17388946161054</v>
       </c>
       <c r="O17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>806.97304681525998</v>
       </c>
       <c r="P17" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>728.837561329972</v>
       </c>
       <c r="Q17" s="73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>915.8503626554143</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4671.391910368462</v>
       </c>
       <c r="S17" s="90">
@@ -9475,7 +9359,7 @@
         <v>1289.0625</v>
       </c>
       <c r="W17" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5859.375</v>
       </c>
       <c r="X17" s="69">
@@ -9495,7 +9379,7 @@
         <v>2964.84375</v>
       </c>
       <c r="AB17" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13476.5625</v>
       </c>
       <c r="AC17" s="69">
@@ -9515,7 +9399,7 @@
         <v>6819.1406249999973</v>
       </c>
       <c r="AG17" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30996.093749999993</v>
       </c>
       <c r="AH17" s="69">
@@ -9535,7 +9419,7 @@
         <v>15684.023437499991</v>
       </c>
       <c r="AL17" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71291.015624999971</v>
       </c>
       <c r="AM17" s="80"/>
@@ -9549,11 +9433,11 @@
         <v>70.2</v>
       </c>
       <c r="C18" s="21">
-        <f t="shared" ref="C18:AC18" si="17">SUM(C14:C17)</f>
+        <f t="shared" ref="C18:AC18" si="20">SUM(C14:C17)</f>
         <v>80.599999999999994</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>81</v>
       </c>
       <c r="E18" s="21">
@@ -9561,71 +9445,71 @@
         <v>231.8</v>
       </c>
       <c r="F18" s="92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>292.13936561669829</v>
       </c>
       <c r="G18" s="92">
-        <f t="shared" ref="G18" si="18">SUM(G14:G17)</f>
+        <f t="shared" ref="G18" si="21">SUM(G14:G17)</f>
         <v>238.58026562066331</v>
       </c>
       <c r="H18" s="92">
-        <f t="shared" ref="H18" si="19">SUM(H14:H17)</f>
+        <f t="shared" ref="H18" si="22">SUM(H14:H17)</f>
         <v>309.7134453028973</v>
       </c>
       <c r="I18" s="92">
-        <f t="shared" ref="I18" si="20">SUM(I14:I17)</f>
+        <f t="shared" ref="I18" si="23">SUM(I14:I17)</f>
         <v>368.19123815571106</v>
       </c>
       <c r="J18" s="92">
-        <f t="shared" ref="J18" si="21">SUM(J14:J17)</f>
+        <f t="shared" ref="J18" si="24">SUM(J14:J17)</f>
         <v>318.953073203999</v>
       </c>
       <c r="K18" s="92">
-        <f t="shared" ref="K18" si="22">SUM(K14:K17)</f>
+        <f t="shared" ref="K18" si="25">SUM(K14:K17)</f>
         <v>405.08143458155149</v>
       </c>
       <c r="L18" s="92">
-        <f t="shared" ref="L18" si="23">SUM(L14:L17)</f>
+        <f t="shared" ref="L18" si="26">SUM(L14:L17)</f>
         <v>614.34790532498801</v>
       </c>
       <c r="M18" s="92">
-        <f t="shared" ref="M18" si="24">SUM(M14:M17)</f>
+        <f t="shared" ref="M18" si="27">SUM(M14:M17)</f>
         <v>614.55285086068716</v>
       </c>
       <c r="N18" s="92">
-        <f t="shared" ref="N18" si="25">SUM(N14:N17)</f>
+        <f t="shared" ref="N18" si="28">SUM(N14:N17)</f>
         <v>878.81304035005257</v>
       </c>
       <c r="O18" s="92">
-        <f t="shared" ref="O18" si="26">SUM(O14:O17)</f>
+        <f t="shared" ref="O18" si="29">SUM(O14:O17)</f>
         <v>1068.1314789521089</v>
       </c>
       <c r="P18" s="92">
-        <f t="shared" ref="P18" si="27">SUM(P14:P17)</f>
+        <f t="shared" ref="P18" si="30">SUM(P14:P17)</f>
         <v>1009.4316617689535</v>
       </c>
       <c r="Q18" s="202">
-        <f t="shared" ref="Q18:S18" si="28">SUM(Q14:Q17)</f>
+        <f t="shared" ref="Q18:S18" si="31">SUM(Q14:Q17)</f>
         <v>1220.8671394318735</v>
       </c>
       <c r="R18" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7338.8028991701849</v>
       </c>
       <c r="S18" s="92">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3818.671875</v>
       </c>
       <c r="T18" s="92">
-        <f t="shared" ref="T18" si="29">SUM(T14:T17)</f>
+        <f t="shared" ref="T18" si="32">SUM(T14:T17)</f>
         <v>987.421875</v>
       </c>
       <c r="U18" s="92">
-        <f t="shared" ref="U18" si="30">SUM(U14:U17)</f>
+        <f t="shared" ref="U18" si="33">SUM(U14:U17)</f>
         <v>1248.75</v>
       </c>
       <c r="V18" s="202">
-        <f t="shared" ref="V18:X18" si="31">SUM(V14:V17)</f>
+        <f t="shared" ref="V18:X18" si="34">SUM(V14:V17)</f>
         <v>1937.8125</v>
       </c>
       <c r="W18" s="202">
@@ -9633,19 +9517,19 @@
         <v>7992.65625</v>
       </c>
       <c r="X18" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8548.9453125</v>
       </c>
       <c r="Y18" s="92">
-        <f t="shared" ref="Y18" si="32">SUM(Y14:Y17)</f>
+        <f t="shared" ref="Y18" si="35">SUM(Y14:Y17)</f>
         <v>2037.0703125</v>
       </c>
       <c r="Z18" s="92">
-        <f t="shared" ref="Z18" si="33">SUM(Z14:Z17)</f>
+        <f t="shared" ref="Z18" si="36">SUM(Z14:Z17)</f>
         <v>2638.125</v>
       </c>
       <c r="AA18" s="202">
-        <f t="shared" ref="AA18" si="34">SUM(AA14:AA17)</f>
+        <f t="shared" ref="AA18" si="37">SUM(AA14:AA17)</f>
         <v>4222.96875</v>
       </c>
       <c r="AB18" s="202">
@@ -9653,19 +9537,19 @@
         <v>17447.109375</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19428.574218749993</v>
       </c>
       <c r="AD18" s="92">
-        <f t="shared" ref="AD18" si="35">SUM(AD14:AD17)</f>
+        <f t="shared" ref="AD18" si="38">SUM(AD14:AD17)</f>
         <v>4451.2617187500027</v>
       </c>
       <c r="AE18" s="92">
-        <f t="shared" ref="AE18" si="36">SUM(AE14:AE17)</f>
+        <f t="shared" ref="AE18" si="39">SUM(AE14:AE17)</f>
         <v>5833.6875</v>
       </c>
       <c r="AF18" s="202">
-        <f t="shared" ref="AF18:AH18" si="37">SUM(AF14:AF17)</f>
+        <f t="shared" ref="AF18:AH18" si="40">SUM(AF14:AF17)</f>
         <v>9478.8281249999964</v>
       </c>
       <c r="AG18" s="202">
@@ -9673,19 +9557,19 @@
         <v>39192.351562499993</v>
       </c>
       <c r="AH18" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>44451.720703124985</v>
       </c>
       <c r="AI18" s="92">
-        <f t="shared" ref="AI18" si="38">SUM(AI14:AI17)</f>
+        <f t="shared" ref="AI18" si="41">SUM(AI14:AI17)</f>
         <v>10003.901953125007</v>
       </c>
       <c r="AJ18" s="92">
-        <f t="shared" ref="AJ18" si="39">SUM(AJ14:AJ17)</f>
+        <f t="shared" ref="AJ18" si="42">SUM(AJ14:AJ17)</f>
         <v>13183.481249999995</v>
       </c>
       <c r="AK18" s="202">
-        <f t="shared" ref="AK18" si="40">SUM(AK14:AK17)</f>
+        <f t="shared" ref="AK18" si="43">SUM(AK14:AK17)</f>
         <v>21567.304687499989</v>
       </c>
       <c r="AL18" s="202">
@@ -9715,136 +9599,136 @@
         <v>-231.8</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" ref="F19:AL19" si="41">F12-F18</f>
+        <f t="shared" ref="F19:AL19" si="44">F12-F18</f>
         <v>-191.78300199912769</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-95.214031881276725</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-69.062981526069848</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>12.753325780373302</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>160.29976529623622</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>236.99448366555845</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>349.27799430903178</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>662.43067394656327</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>909.1687032854403</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1364.9983165106232</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2006.3794693917146</v>
       </c>
       <c r="Q19" s="200">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2527.1358283263758</v>
       </c>
       <c r="R19" s="200">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7873.3785451054428</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>15074.5703125</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>20698.734375</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>24380.34375</v>
       </c>
       <c r="V19" s="200">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>30920</v>
       </c>
       <c r="W19" s="75">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>91073.6484375</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="41"/>
-        <v>35505.511718749993</v>
+        <f t="shared" si="44"/>
+        <v>34905.511718749993</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" si="41"/>
-        <v>49041.089062500003</v>
+        <f t="shared" si="44"/>
+        <v>53841.089062500003</v>
       </c>
       <c r="Z19" s="23">
-        <f t="shared" si="41"/>
-        <v>57508.790625000001</v>
+        <f t="shared" si="44"/>
+        <v>62308.790625000001</v>
       </c>
       <c r="AA19" s="200">
-        <f t="shared" si="41"/>
-        <v>72550</v>
+        <f t="shared" si="44"/>
+        <v>77350</v>
       </c>
       <c r="AB19" s="213">
-        <f t="shared" si="41"/>
-        <v>214605.39140624998</v>
+        <f t="shared" si="44"/>
+        <v>228405.39140624998</v>
       </c>
       <c r="AC19" s="23">
-        <f t="shared" si="41"/>
-        <v>85016.676953124988</v>
+        <f t="shared" si="44"/>
+        <v>103016.67695312499</v>
       </c>
       <c r="AD19" s="23">
-        <f t="shared" si="41"/>
-        <v>116268.50484375001</v>
+        <f t="shared" si="44"/>
+        <v>132768.50484375001</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="41"/>
-        <v>135744.21843749995</v>
+        <f t="shared" si="44"/>
+        <v>152244.21843749995</v>
       </c>
       <c r="AF19" s="200">
-        <f t="shared" si="41"/>
-        <v>170338.99999999997</v>
+        <f t="shared" si="44"/>
+        <v>186838.99999999997</v>
       </c>
       <c r="AG19" s="75">
-        <f t="shared" si="41"/>
-        <v>507368.40023437492</v>
+        <f t="shared" si="44"/>
+        <v>574868.40023437492</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" si="41"/>
-        <v>195422.35699218744</v>
+        <f t="shared" si="44"/>
+        <v>235422.35699218739</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="41"/>
-        <v>265851.56114062492</v>
+        <f t="shared" si="44"/>
+        <v>303851.56114062492</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="41"/>
-        <v>313645.70240624988</v>
+        <f t="shared" si="44"/>
+        <v>348645.70240624988</v>
       </c>
       <c r="AK19" s="200">
-        <f t="shared" si="41"/>
-        <v>393213.6999999999</v>
+        <f t="shared" si="44"/>
+        <v>428213.6999999999</v>
       </c>
       <c r="AL19" s="75">
-        <f t="shared" si="41"/>
-        <v>1168133.3205390624</v>
+        <f t="shared" si="44"/>
+        <v>1316133.3205390624</v>
       </c>
       <c r="AM19" s="80"/>
     </row>
@@ -9934,7 +9818,7 @@
     </row>
     <row r="22" spans="1:39 16384:16384" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="32">
         <v>0</v>
@@ -9946,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" ref="E22:E30" si="42">SUM(B22:D22)</f>
+        <f t="shared" ref="E22:E30" si="45">SUM(B22:D22)</f>
         <v>0</v>
       </c>
       <c r="F22" s="70">
@@ -9960,39 +9844,39 @@
         <v>4000</v>
       </c>
       <c r="I22" s="32">
-        <f t="shared" ref="I22:Q22" si="43">$H$22</f>
+        <f t="shared" ref="I22:Q22" si="46">$H$22</f>
         <v>4000</v>
       </c>
       <c r="J22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="K22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="L22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="M22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="N22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="O22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="P22" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="Q22" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4000</v>
       </c>
       <c r="R22" s="33">
@@ -10024,15 +9908,15 @@
         <v>30000</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" ref="Y22:AA22" si="44">(4*(30000/12)*3)</f>
+        <f t="shared" ref="Y22:AA22" si="47">(4*(30000/12)*3)</f>
         <v>30000</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>30000</v>
       </c>
       <c r="AA22" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>30000</v>
       </c>
       <c r="AB22" s="73">
@@ -10044,15 +9928,15 @@
         <v>35000</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" ref="AD22:AF22" si="45">(4*(35000/12)*3)</f>
+        <f t="shared" ref="AD22:AF22" si="48">(4*(35000/12)*3)</f>
         <v>35000</v>
       </c>
       <c r="AE22" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="AF22" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="AG22" s="73">
@@ -10064,15 +9948,15 @@
         <v>35000</v>
       </c>
       <c r="AI22" s="15">
-        <f t="shared" ref="AI22:AK22" si="46">(4*(35000/12)*3)</f>
+        <f t="shared" ref="AI22:AK22" si="49">(4*(35000/12)*3)</f>
         <v>35000</v>
       </c>
       <c r="AJ22" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>35000</v>
       </c>
       <c r="AK22" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>35000</v>
       </c>
       <c r="AL22" s="73">
@@ -10095,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F23" s="94">
@@ -10106,43 +9990,43 @@
         <v>0</v>
       </c>
       <c r="H23" s="32">
-        <f t="shared" ref="H23:Q23" si="47">$F$23</f>
+        <f t="shared" ref="H23:Q23" si="50">$F$23</f>
         <v>0</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P23" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q23" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R23" s="33">
@@ -10163,19 +10047,19 @@
         <v>4500</v>
       </c>
       <c r="W23" s="73">
-        <f t="shared" ref="W23:W37" si="48">SUM(S23:V23)</f>
+        <f t="shared" ref="W23:W37" si="51">SUM(S23:V23)</f>
         <v>4500</v>
       </c>
       <c r="X23" s="15">
-        <f t="shared" ref="X23:Z25" si="49">(1500*3)</f>
+        <f t="shared" ref="X23:Z25" si="52">(1500*3)</f>
         <v>4500</v>
       </c>
       <c r="Y23" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="Z23" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="AA23" s="14">
@@ -10183,7 +10067,7 @@
         <v>6000</v>
       </c>
       <c r="AB23" s="73">
-        <f t="shared" ref="AB23:AB26" si="50">SUM(X23:AA23)</f>
+        <f t="shared" ref="AB23:AB26" si="53">SUM(X23:AA23)</f>
         <v>19500</v>
       </c>
       <c r="AC23" s="15">
@@ -10195,15 +10079,15 @@
         <v>12000</v>
       </c>
       <c r="AE23" s="15">
-        <f t="shared" ref="AE23:AF23" si="51">(6000*3)</f>
+        <f t="shared" ref="AE23:AF23" si="54">(6000*3)</f>
         <v>18000</v>
       </c>
       <c r="AF23" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>18000</v>
       </c>
       <c r="AG23" s="73">
-        <f t="shared" ref="AG23:AG27" si="52">SUM(AC23:AF23)</f>
+        <f t="shared" ref="AG23:AG27" si="55">SUM(AC23:AF23)</f>
         <v>60000</v>
       </c>
       <c r="AH23" s="15">
@@ -10211,19 +10095,19 @@
         <v>27000</v>
       </c>
       <c r="AI23" s="15">
-        <f t="shared" ref="AI23:AK23" si="53">(9000*3)</f>
+        <f t="shared" ref="AI23:AK23" si="56">(9000*3)</f>
         <v>27000</v>
       </c>
       <c r="AJ23" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="AK23" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="AL23" s="73">
-        <f t="shared" ref="AL23:AL27" si="54">SUM(AH23:AK23)</f>
+        <f t="shared" ref="AL23:AL27" si="57">SUM(AH23:AK23)</f>
         <v>108000</v>
       </c>
       <c r="AM23" s="80"/>
@@ -10242,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F24" s="94">
@@ -10282,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="33">
-        <f t="shared" ref="R24:R37" si="55">SUM(F24:Q24)</f>
+        <f t="shared" ref="R24:R37" si="58">SUM(F24:Q24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="15">
@@ -10298,27 +10182,27 @@
         <v>0</v>
       </c>
       <c r="W24" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X24" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="Y24" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="Z24" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="AA24" s="14">
-        <f t="shared" ref="AA24:AA25" si="56">(2000*3)</f>
+        <f t="shared" ref="AA24:AA25" si="59">(2000*3)</f>
         <v>6000</v>
       </c>
       <c r="AB24" s="73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>19500</v>
       </c>
       <c r="AC24" s="15">
@@ -10335,7 +10219,7 @@
         <v>18000</v>
       </c>
       <c r="AG24" s="73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>36000</v>
       </c>
       <c r="AH24" s="15">
@@ -10343,19 +10227,19 @@
         <v>18000</v>
       </c>
       <c r="AI24" s="15">
-        <f t="shared" ref="AI24:AK24" si="57">(3000*3)*2</f>
+        <f t="shared" ref="AI24:AK24" si="60">(3000*3)*2</f>
         <v>18000</v>
       </c>
       <c r="AJ24" s="15">
+        <f t="shared" si="60"/>
+        <v>18000</v>
+      </c>
+      <c r="AK24" s="14">
+        <f t="shared" si="60"/>
+        <v>18000</v>
+      </c>
+      <c r="AL24" s="73">
         <f t="shared" si="57"/>
-        <v>18000</v>
-      </c>
-      <c r="AK24" s="14">
-        <f t="shared" si="57"/>
-        <v>18000</v>
-      </c>
-      <c r="AL24" s="73">
-        <f t="shared" si="54"/>
         <v>72000</v>
       </c>
       <c r="AM24" s="80"/>
@@ -10374,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F25" s="94">
@@ -10385,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="94">
-        <f t="shared" ref="H25" si="58">$F$25</f>
+        <f t="shared" ref="H25" si="61">$F$25</f>
         <v>0</v>
       </c>
       <c r="I25" s="94">
@@ -10395,11 +10279,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="94">
-        <f t="shared" ref="K25:L25" si="59">$I$25</f>
+        <f t="shared" ref="K25:L25" si="62">$I$25</f>
         <v>0</v>
       </c>
       <c r="L25" s="94">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M25" s="94">
@@ -10418,47 +10302,47 @@
         <v>1200</v>
       </c>
       <c r="R25" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>6000</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" ref="S25" si="60">(1500*3)</f>
+        <f t="shared" ref="S25" si="63">(1500*3)</f>
         <v>4500</v>
       </c>
       <c r="T25" s="15">
-        <f t="shared" ref="T25:V25" si="61">(1500*3)</f>
+        <f t="shared" ref="T25:V25" si="64">(1500*3)</f>
         <v>4500</v>
       </c>
       <c r="U25" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4500</v>
       </c>
       <c r="V25" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4500</v>
       </c>
       <c r="W25" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>18000</v>
       </c>
       <c r="X25" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="Y25" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="Z25" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4500</v>
       </c>
       <c r="AA25" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>6000</v>
       </c>
       <c r="AB25" s="73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>19500</v>
       </c>
       <c r="AC25" s="15">
@@ -10471,37 +10355,37 @@
         <v>6000</v>
       </c>
       <c r="AF25" s="14">
-        <f t="shared" ref="AF25" si="62">(4000*3)</f>
+        <f t="shared" ref="AF25" si="65">(4000*3)</f>
         <v>12000</v>
       </c>
       <c r="AG25" s="73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>30000</v>
       </c>
       <c r="AH25" s="15">
         <v>12000</v>
       </c>
       <c r="AI25" s="15">
-        <f t="shared" ref="AI25:AK25" si="63">(6000*3)</f>
+        <f t="shared" ref="AI25:AK25" si="66">(6000*3)</f>
         <v>18000</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>18000</v>
       </c>
       <c r="AK25" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>18000</v>
       </c>
       <c r="AL25" s="73">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>66000</v>
       </c>
       <c r="AM25" s="80"/>
     </row>
     <row r="26" spans="1:39 16384:16384" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="32">
         <v>0</v>
@@ -10559,19 +10443,19 @@
         <v>4500</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" ref="T26:V26" si="64">1500*3</f>
+        <f t="shared" ref="T26:V26" si="67">1500*3</f>
         <v>4500</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>4500</v>
       </c>
       <c r="V26" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>4500</v>
       </c>
       <c r="W26" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>18000</v>
       </c>
       <c r="X26" s="15">
@@ -10583,15 +10467,15 @@
         <v>6000</v>
       </c>
       <c r="Z26" s="15">
-        <f t="shared" ref="Z26:AA26" si="65">4000*3</f>
+        <f t="shared" ref="Z26:AA26" si="68">4000*3</f>
         <v>12000</v>
       </c>
       <c r="AA26" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>12000</v>
       </c>
       <c r="AB26" s="73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>36000</v>
       </c>
       <c r="AC26" s="15">
@@ -10599,19 +10483,19 @@
         <v>12000</v>
       </c>
       <c r="AD26" s="15">
-        <f t="shared" ref="AD26:AE26" si="66">4000*3</f>
+        <f t="shared" ref="AD26:AE26" si="69">4000*3</f>
         <v>12000</v>
       </c>
       <c r="AE26" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>12000</v>
       </c>
       <c r="AF26" s="14">
-        <f t="shared" ref="AF26" si="67">6000*3</f>
+        <f t="shared" ref="AF26" si="70">6000*3</f>
         <v>18000</v>
       </c>
       <c r="AG26" s="73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>54000</v>
       </c>
       <c r="AH26" s="15">
@@ -10619,19 +10503,19 @@
         <v>18000</v>
       </c>
       <c r="AI26" s="15">
-        <f t="shared" ref="AI26:AK26" si="68">6000*3</f>
+        <f t="shared" ref="AI26:AK26" si="71">6000*3</f>
         <v>18000</v>
       </c>
       <c r="AJ26" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>18000</v>
       </c>
       <c r="AK26" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>18000</v>
       </c>
       <c r="AL26" s="73">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>72000</v>
       </c>
       <c r="AM26" s="80"/>
@@ -10650,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F27" s="94">
@@ -10690,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S27" s="15">
@@ -10706,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X27" s="15">
@@ -10737,7 +10621,7 @@
         <v>2500</v>
       </c>
       <c r="AG27" s="73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>10000</v>
       </c>
       <c r="AH27" s="15">
@@ -10753,7 +10637,7 @@
         <v>5000</v>
       </c>
       <c r="AL27" s="73">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>20000</v>
       </c>
       <c r="AM27" s="80"/>
@@ -10816,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F29" s="94">
@@ -10827,11 +10711,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" ref="H29:I29" si="69">$F$29</f>
+        <f t="shared" ref="H29:I29" si="72">$F$29</f>
         <v>0</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J29" s="32">
@@ -10841,31 +10725,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" ref="L29:Q29" si="70">$J$29</f>
+        <f t="shared" ref="L29:Q29" si="73">$J$29</f>
         <v>0</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Q29" s="33">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="R29" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S29" s="15">
@@ -10881,7 +10765,7 @@
         <v>3000</v>
       </c>
       <c r="W29" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>12000</v>
       </c>
       <c r="X29" s="38">
@@ -10897,7 +10781,7 @@
         <v>3000</v>
       </c>
       <c r="AB29" s="73">
-        <f t="shared" ref="AB29:AB37" si="71">SUM(X29:AA29)</f>
+        <f t="shared" ref="AB29:AB37" si="74">SUM(X29:AA29)</f>
         <v>12000</v>
       </c>
       <c r="AC29" s="38">
@@ -10913,7 +10797,7 @@
         <v>3000</v>
       </c>
       <c r="AG29" s="73">
-        <f t="shared" ref="AG29:AG30" si="72">SUM(AC29:AF29)</f>
+        <f t="shared" ref="AG29:AG30" si="75">SUM(AC29:AF29)</f>
         <v>12000</v>
       </c>
       <c r="AH29" s="38">
@@ -10929,7 +10813,7 @@
         <v>3000</v>
       </c>
       <c r="AL29" s="73">
-        <f t="shared" ref="AL29:AL30" si="73">SUM(AH29:AK29)</f>
+        <f t="shared" ref="AL29:AL30" si="76">SUM(AH29:AK29)</f>
         <v>12000</v>
       </c>
       <c r="AM29" s="80"/>
@@ -10948,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F30" s="94">
@@ -10959,11 +10843,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="32">
-        <f t="shared" ref="H30:I30" si="74">$F$30</f>
+        <f t="shared" ref="H30:I30" si="77">$F$30</f>
         <v>0</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J30" s="32">
@@ -10974,31 +10858,31 @@
         <v>0</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" ref="L30:Q30" si="75">$J$30</f>
+        <f t="shared" ref="L30:Q30" si="78">$J$30</f>
         <v>0</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S30" s="15">
@@ -11014,7 +10898,7 @@
         <v>100</v>
       </c>
       <c r="W30" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>10300</v>
       </c>
       <c r="X30" s="38">
@@ -11030,7 +10914,7 @@
         <v>200</v>
       </c>
       <c r="AB30" s="73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>800</v>
       </c>
       <c r="AC30" s="38">
@@ -11046,7 +10930,7 @@
         <v>200</v>
       </c>
       <c r="AG30" s="73">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>800</v>
       </c>
       <c r="AH30" s="38">
@@ -11062,7 +10946,7 @@
         <v>350</v>
       </c>
       <c r="AL30" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>16050</v>
       </c>
       <c r="AM30" s="80"/>
@@ -11124,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" ref="E32:E33" si="76">SUM(B32:D32)</f>
+        <f t="shared" ref="E32:E33" si="79">SUM(B32:D32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="94">
@@ -11164,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S32" s="15">
@@ -11180,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X32" s="38">
@@ -11196,7 +11080,7 @@
         <v>900</v>
       </c>
       <c r="AB32" s="73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>3300</v>
       </c>
       <c r="AC32" s="38">
@@ -11212,7 +11096,7 @@
         <v>900</v>
       </c>
       <c r="AG32" s="73">
-        <f t="shared" ref="AG32:AG33" si="77">SUM(AC32:AF32)</f>
+        <f t="shared" ref="AG32:AG33" si="80">SUM(AC32:AF32)</f>
         <v>3300</v>
       </c>
       <c r="AH32" s="38">
@@ -11228,7 +11112,7 @@
         <v>900</v>
       </c>
       <c r="AL32" s="73">
-        <f t="shared" ref="AL32:AL33" si="78">SUM(AH32:AK32)</f>
+        <f t="shared" ref="AL32:AL33" si="81">SUM(AH32:AK32)</f>
         <v>3300</v>
       </c>
       <c r="AM32" s="80"/>
@@ -11247,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F33" s="94">
@@ -11287,7 +11171,7 @@
         <v>100</v>
       </c>
       <c r="R33" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1000</v>
       </c>
       <c r="S33" s="94">
@@ -11303,7 +11187,7 @@
         <v>500</v>
       </c>
       <c r="W33" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2000</v>
       </c>
       <c r="X33" s="70">
@@ -11319,7 +11203,7 @@
         <v>500</v>
       </c>
       <c r="AB33" s="73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2000</v>
       </c>
       <c r="AC33" s="70">
@@ -11335,7 +11219,7 @@
         <v>500</v>
       </c>
       <c r="AG33" s="73">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>2000</v>
       </c>
       <c r="AH33" s="70">
@@ -11351,7 +11235,7 @@
         <v>500</v>
       </c>
       <c r="AL33" s="73">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>2000</v>
       </c>
       <c r="AM33" s="80"/>
@@ -11413,59 +11297,59 @@
         <v>0</v>
       </c>
       <c r="E35" s="15">
-        <f t="shared" ref="E35:E37" si="79">SUM(B35:D35)</f>
+        <f t="shared" ref="E35:E37" si="82">SUM(B35:D35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="94">
-        <f t="shared" ref="F35:Q35" si="80">F12*$B$76</f>
+        <f t="shared" ref="F35:Q35" si="83">F12*$B$76</f>
         <v>1.3548109088372029</v>
       </c>
       <c r="G35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1.935444155481719</v>
       </c>
       <c r="H35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>3.2487812609871707</v>
       </c>
       <c r="I35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>5.1427516131371389</v>
       </c>
       <c r="J35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>6.4699133197531751</v>
       </c>
       <c r="K35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>8.6680248963359841</v>
       </c>
       <c r="L35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>13.008949645059268</v>
       </c>
       <c r="M35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>17.239277584897881</v>
       </c>
       <c r="N35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>24.137753539079153</v>
       </c>
       <c r="O35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>32.847252238746883</v>
       </c>
       <c r="P35" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>40.713450270669021</v>
       </c>
       <c r="Q35" s="77">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>50.598040064736367</v>
       </c>
       <c r="R35" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>205.36444949772095</v>
       </c>
       <c r="S35" s="15">
@@ -11489,63 +11373,63 @@
       </c>
       <c r="X35" s="15">
         <f>X12*$B$76</f>
-        <v>594.7351699218749</v>
+        <v>586.63516992187488</v>
       </c>
       <c r="Y35" s="15">
         <f>Y12*$B$76</f>
-        <v>689.55515156249999</v>
+        <v>754.35515156250005</v>
       </c>
       <c r="Z35" s="15">
         <f>Z12*$B$76</f>
-        <v>811.98336093750004</v>
+        <v>876.78336093749999</v>
       </c>
       <c r="AA35" s="14">
         <f>AA12*$B$76</f>
-        <v>1036.435078125</v>
+        <v>1101.235078125</v>
       </c>
       <c r="AB35" s="73">
-        <f t="shared" si="71"/>
-        <v>3132.7087605468751</v>
+        <f t="shared" si="74"/>
+        <v>3319.0087605468743</v>
       </c>
       <c r="AC35" s="15">
         <f>AC12*$B$76</f>
-        <v>1410.0108908203122</v>
+        <v>1653.0108908203122</v>
       </c>
       <c r="AD35" s="15">
         <f>AD12*$B$76</f>
-        <v>1629.71684859375</v>
+        <v>1852.46684859375</v>
       </c>
       <c r="AE35" s="15">
         <f>AE12*$B$76</f>
-        <v>1911.3017301562493</v>
+        <v>2134.0517301562495</v>
       </c>
       <c r="AF35" s="14">
         <f>AF12*$B$76</f>
-        <v>2427.5406796874995</v>
+        <v>2650.2906796874995</v>
       </c>
       <c r="AG35" s="73">
-        <f t="shared" ref="AG35:AG37" si="81">SUM(AC35:AF35)</f>
-        <v>7378.570149257811</v>
+        <f t="shared" ref="AG35:AG37" si="84">SUM(AC35:AF35)</f>
+        <v>8289.8201492578119</v>
       </c>
       <c r="AH35" s="15">
         <f>AH12*$B$76</f>
-        <v>3238.3000488867174</v>
+        <v>3778.3000488867174</v>
       </c>
       <c r="AI35" s="15">
         <f>AI12*$B$76</f>
-        <v>3724.0487517656243</v>
+        <v>4237.0487517656238</v>
       </c>
       <c r="AJ35" s="15">
         <f>AJ12*$B$76</f>
-        <v>4412.1939793593738</v>
+        <v>4884.6939793593738</v>
       </c>
       <c r="AK35" s="14">
         <f>AK12*$B$76</f>
-        <v>5599.5435632812487</v>
+        <v>6072.0435632812487</v>
       </c>
       <c r="AL35" s="73">
-        <f t="shared" ref="AL35:AL37" si="82">SUM(AH35:AK35)</f>
-        <v>16974.086343292965</v>
+        <f t="shared" ref="AL35:AL37" si="85">SUM(AH35:AK35)</f>
+        <v>18972.086343292962</v>
       </c>
       <c r="AM35" s="80"/>
     </row>
@@ -11563,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F36" s="94">
@@ -11574,47 +11458,47 @@
         <v>16</v>
       </c>
       <c r="H36" s="94">
-        <f t="shared" ref="H36:Q36" si="83">$F$36</f>
+        <f t="shared" ref="H36:Q36" si="86">$F$36</f>
         <v>16</v>
       </c>
       <c r="I36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="J36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="K36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="L36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="M36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="N36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="O36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="P36" s="94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="Q36" s="77">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="R36" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>192</v>
       </c>
       <c r="S36" s="15">
@@ -11634,7 +11518,7 @@
         <v>48</v>
       </c>
       <c r="W36" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>192</v>
       </c>
       <c r="X36" s="15">
@@ -11654,7 +11538,7 @@
         <v>48</v>
       </c>
       <c r="AB36" s="73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>192</v>
       </c>
       <c r="AC36" s="15">
@@ -11674,7 +11558,7 @@
         <v>48</v>
       </c>
       <c r="AG36" s="73">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>192</v>
       </c>
       <c r="AH36" s="15">
@@ -11694,7 +11578,7 @@
         <v>48</v>
       </c>
       <c r="AL36" s="73">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>192</v>
       </c>
       <c r="AM36" s="80"/>
@@ -11713,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="32">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F37" s="94">
@@ -11753,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S37" s="15">
@@ -11769,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X37" s="38">
@@ -11785,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AC37" s="38">
@@ -11801,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="73">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AH37" s="38">
@@ -11817,7 +11701,7 @@
         <v>1500</v>
       </c>
       <c r="AL37" s="73">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>6000</v>
       </c>
       <c r="AM37" s="80"/>
@@ -11827,152 +11711,152 @@
         <v>52</v>
       </c>
       <c r="B38" s="42">
-        <f t="shared" ref="B38:AL38" si="84">SUM(B22:B37)</f>
+        <f t="shared" ref="B38:AL38" si="87">SUM(B22:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="E38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>17.354810908837202</v>
       </c>
       <c r="G38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>17.935444155481719</v>
       </c>
       <c r="H38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4119.248781260987</v>
       </c>
       <c r="I38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4121.1427516131371</v>
       </c>
       <c r="J38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4122.4699133197528</v>
       </c>
       <c r="K38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4124.6680248963357</v>
       </c>
       <c r="L38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4129.0089496450591</v>
       </c>
       <c r="M38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5333.2392775848975</v>
       </c>
       <c r="N38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5340.1377535390793</v>
       </c>
       <c r="O38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5348.8472522387465</v>
       </c>
       <c r="P38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5356.7134502706695</v>
       </c>
       <c r="Q38" s="203">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5366.5980400647368</v>
       </c>
       <c r="R38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>47397.36444949772</v>
       </c>
       <c r="S38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>40803.05876953125</v>
       </c>
       <c r="T38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>30940.763109374999</v>
       </c>
       <c r="U38" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>30993.992765625</v>
       </c>
       <c r="V38" s="203">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>35591.580468749999</v>
       </c>
       <c r="W38" s="208">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>137992</v>
       </c>
       <c r="X38" s="42">
-        <f t="shared" si="84"/>
-        <v>54442.735169921878</v>
+        <f t="shared" si="87"/>
+        <v>54434.635169921872</v>
       </c>
       <c r="Y38" s="42">
-        <f t="shared" si="84"/>
-        <v>54837.555151562497</v>
+        <f t="shared" si="87"/>
+        <v>54902.3551515625</v>
       </c>
       <c r="Z38" s="42">
-        <f t="shared" si="84"/>
-        <v>60959.983360937498</v>
+        <f t="shared" si="87"/>
+        <v>61024.783360937501</v>
       </c>
       <c r="AA38" s="203">
-        <f t="shared" si="84"/>
-        <v>65684.435078124996</v>
+        <f t="shared" si="87"/>
+        <v>65749.235078124999</v>
       </c>
       <c r="AB38" s="208">
-        <f t="shared" si="84"/>
-        <v>235924.70876054687</v>
+        <f t="shared" si="87"/>
+        <v>236111.00876054689</v>
       </c>
       <c r="AC38" s="42">
-        <f t="shared" si="84"/>
-        <v>79258.010890820311</v>
+        <f t="shared" si="87"/>
+        <v>79501.010890820311</v>
       </c>
       <c r="AD38" s="42">
-        <f t="shared" si="84"/>
-        <v>79777.716848593744</v>
+        <f t="shared" si="87"/>
+        <v>80000.466848593744</v>
       </c>
       <c r="AE38" s="42">
-        <f t="shared" si="84"/>
-        <v>86059.30173015625</v>
+        <f t="shared" si="87"/>
+        <v>86282.05173015625</v>
       </c>
       <c r="AF38" s="203">
-        <f t="shared" si="84"/>
-        <v>110575.5406796875</v>
+        <f t="shared" si="87"/>
+        <v>110798.2906796875</v>
       </c>
       <c r="AG38" s="208">
-        <f t="shared" si="84"/>
-        <v>355670.57014925784</v>
+        <f t="shared" si="87"/>
+        <v>356581.82014925784</v>
       </c>
       <c r="AH38" s="42">
-        <f t="shared" si="84"/>
-        <v>138886.30004888671</v>
+        <f t="shared" si="87"/>
+        <v>139426.30004888671</v>
       </c>
       <c r="AI38" s="42">
-        <f t="shared" si="84"/>
-        <v>131022.04875176563</v>
+        <f t="shared" si="87"/>
+        <v>131535.04875176563</v>
       </c>
       <c r="AJ38" s="42">
-        <f t="shared" si="84"/>
-        <v>131710.19397935938</v>
+        <f t="shared" si="87"/>
+        <v>132182.69397935938</v>
       </c>
       <c r="AK38" s="203">
-        <f t="shared" si="84"/>
-        <v>132897.54356328124</v>
+        <f t="shared" si="87"/>
+        <v>133370.04356328124</v>
       </c>
       <c r="AL38" s="208">
-        <f t="shared" si="84"/>
-        <v>534516.08634329296</v>
+        <f t="shared" si="87"/>
+        <v>536514.08634329296</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.5">
@@ -11996,51 +11880,51 @@
         <v>-231.8</v>
       </c>
       <c r="F39" s="43">
-        <f t="shared" ref="F39:Q39" si="85">F12-(F18+F38)</f>
+        <f t="shared" ref="F39:Q39" si="88">F12-(F18+F38)</f>
         <v>-209.13781290796487</v>
       </c>
       <c r="G39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-113.14947603675847</v>
       </c>
       <c r="H39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-4188.311762787057</v>
       </c>
       <c r="I39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-4108.3894258327637</v>
       </c>
       <c r="J39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3962.170148023517</v>
       </c>
       <c r="K39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3887.6735412307771</v>
       </c>
       <c r="L39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3779.7309553360269</v>
       </c>
       <c r="M39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-4670.8086036383338</v>
       </c>
       <c r="N39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-4430.9690502536396</v>
       </c>
       <c r="O39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3983.8489357281228</v>
       </c>
       <c r="P39" s="43">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3350.3339808789551</v>
       </c>
       <c r="Q39" s="201">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-2839.462211738361</v>
       </c>
       <c r="R39" s="201">
@@ -12069,63 +11953,63 @@
       </c>
       <c r="X39" s="43">
         <f>X12-(X18+X38)</f>
-        <v>-18937.223451171885</v>
+        <v>-19529.123451171879</v>
       </c>
       <c r="Y39" s="43">
         <f>Y12-(Y18+Y38)</f>
-        <v>-5796.4660890624946</v>
+        <v>-1061.2660890624975</v>
       </c>
       <c r="Z39" s="43">
         <f>Z12-(Z18+Z38)</f>
-        <v>-3451.1927359374968</v>
+        <v>1284.0072640625003</v>
       </c>
       <c r="AA39" s="201">
         <f>AA12-(AA18+AA38)</f>
-        <v>6865.5649218750041</v>
+        <v>11600.764921875001</v>
       </c>
       <c r="AB39" s="78">
         <f>SUM(X39:AA39)</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="AC39" s="43">
         <f>AC12-(AC18+AC38)</f>
-        <v>5758.6660623046773</v>
+        <v>23515.666062304677</v>
       </c>
       <c r="AD39" s="43">
         <f>AD12-(AD18+AD38)</f>
-        <v>36490.787995156265</v>
+        <v>52768.037995156265</v>
       </c>
       <c r="AE39" s="43">
         <f>AE12-(AE18+AE38)</f>
-        <v>49684.916707343698</v>
+        <v>65962.166707343698</v>
       </c>
       <c r="AF39" s="201">
         <f>AF12-(AF18+AF38)</f>
-        <v>59763.459320312468</v>
+        <v>76040.709320312468</v>
       </c>
       <c r="AG39" s="78">
         <f>SUM(AC39:AF39)</f>
-        <v>151697.83008511711</v>
+        <v>218286.58008511714</v>
       </c>
       <c r="AH39" s="43">
         <f>AH12-(AH18+AH38)</f>
-        <v>56536.056943300733</v>
+        <v>95996.056943300704</v>
       </c>
       <c r="AI39" s="43">
         <f>AI12-(AI18+AI38)</f>
-        <v>134829.51238885932</v>
+        <v>172316.51238885932</v>
       </c>
       <c r="AJ39" s="43">
         <f>AJ12-(AJ18+AJ38)</f>
-        <v>181935.50842689053</v>
+        <v>216463.00842689053</v>
       </c>
       <c r="AK39" s="201">
         <f>AK12-(AK18+AK38)</f>
-        <v>260316.15643671865</v>
+        <v>294843.65643671865</v>
       </c>
       <c r="AL39" s="78">
         <f>SUM(AH39:AK39)</f>
-        <v>633617.2341957693</v>
+        <v>779619.2341957693</v>
       </c>
       <c r="AM39" s="80"/>
     </row>
@@ -12138,59 +12022,59 @@
         <v>0</v>
       </c>
       <c r="C40" s="44">
-        <f t="shared" ref="C40:E40" si="86">IF(C39&gt;0,C39*0.19,0)</f>
+        <f t="shared" ref="C40:E40" si="89">IF(C39&gt;0,C39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="D40" s="44">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="E40" s="44">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="F40" s="44">
-        <f t="shared" ref="F40" si="87">IF(F39&gt;0,F39*0.19,0)</f>
+        <f t="shared" ref="F40" si="90">IF(F39&gt;0,F39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="44">
-        <f t="shared" ref="G40:H40" si="88">IF(G39&gt;0,G39*0.19,0)</f>
+        <f t="shared" ref="G40:H40" si="91">IF(G39&gt;0,G39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="44">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="I40" s="44">
-        <f t="shared" ref="I40" si="89">IF(I39&gt;0,I39*0.19,0)</f>
+        <f t="shared" ref="I40" si="92">IF(I39&gt;0,I39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="J40" s="44">
-        <f t="shared" ref="J40:K40" si="90">IF(J39&gt;0,J39*0.19,0)</f>
+        <f t="shared" ref="J40:K40" si="93">IF(J39&gt;0,J39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="K40" s="44">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L40" s="44">
-        <f t="shared" ref="L40" si="91">IF(L39&gt;0,L39*0.19,0)</f>
+        <f t="shared" ref="L40" si="94">IF(L39&gt;0,L39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="M40" s="44">
-        <f t="shared" ref="M40:N40" si="92">IF(M39&gt;0,M39*0.19,0)</f>
+        <f t="shared" ref="M40:N40" si="95">IF(M39&gt;0,M39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="N40" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O40" s="44">
-        <f t="shared" ref="O40" si="93">IF(O39&gt;0,O39*0.19,0)</f>
+        <f t="shared" ref="O40" si="96">IF(O39&gt;0,O39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="P40" s="44">
-        <f t="shared" ref="P40" si="94">IF(P39&gt;0,P39*0.19,0)</f>
+        <f t="shared" ref="P40" si="97">IF(P39&gt;0,P39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="Q40" s="204">
@@ -12198,27 +12082,27 @@
         <v>0</v>
       </c>
       <c r="R40" s="44">
-        <f t="shared" ref="R40" si="95">IF(R39&gt;0,R39*0.19,0)</f>
+        <f t="shared" ref="R40" si="98">IF(R39&gt;0,R39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="S40" s="44">
-        <f t="shared" ref="S40" si="96">IF(S39&gt;0,S39*0.19,0)</f>
+        <f t="shared" ref="S40" si="99">IF(S39&gt;0,S39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="T40" s="44">
-        <f t="shared" ref="T40" si="97">IF(T39&gt;0,T39*0.19,0)</f>
+        <f t="shared" ref="T40" si="100">IF(T39&gt;0,T39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="U40" s="44">
-        <f t="shared" ref="U40" si="98">IF(U39&gt;0,U39*0.19,0)</f>
+        <f t="shared" ref="U40" si="101">IF(U39&gt;0,U39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="V40" s="204">
-        <f t="shared" ref="V40" si="99">IF(V39&gt;0,V39*0.19,0)</f>
+        <f t="shared" ref="V40" si="102">IF(V39&gt;0,V39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="W40" s="209">
-        <f t="shared" ref="W40" si="100">IF(W39&gt;0,W39*0.19,0)</f>
+        <f t="shared" ref="W40" si="103">IF(W39&gt;0,W39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="X40" s="44">
@@ -12226,60 +12110,60 @@
         <v>0</v>
       </c>
       <c r="Y40" s="44">
-        <f t="shared" ref="Y40" si="101">IF(Y39&gt;0,Y39*0.19,0)</f>
+        <f t="shared" ref="Y40" si="104">IF(Y39&gt;0,Y39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="Z40" s="44">
-        <f t="shared" ref="Z40" si="102">IF(Z39&gt;0,Z39*0.19,0)</f>
-        <v>0</v>
+        <f t="shared" ref="Z40" si="105">IF(Z39&gt;0,Z39*0.19,0)</f>
+        <v>243.96138017187508</v>
       </c>
       <c r="AA40" s="204">
-        <f t="shared" ref="AA40" si="103">IF(AA39&gt;0,AA39*0.19,0)</f>
-        <v>1304.4573351562508</v>
+        <f t="shared" ref="AA40" si="106">IF(AA39&gt;0,AA39*0.19,0)</f>
+        <v>2204.1453351562504</v>
       </c>
       <c r="AB40" s="209">
-        <f t="shared" ref="AB40" si="104">IF(AB39&gt;0,AB39*0.19,0)</f>
+        <f t="shared" ref="AB40" si="107">IF(AB39&gt;0,AB39*0.19,0)</f>
         <v>0</v>
       </c>
       <c r="AC40" s="44">
         <f>IF(AC39&gt;0,AC39*0.19,0)</f>
-        <v>1094.1465518378886</v>
+        <v>4467.976551837889</v>
       </c>
       <c r="AD40" s="44">
-        <f t="shared" ref="AD40" si="105">IF(AD39&gt;0,AD39*0.19,0)</f>
-        <v>6933.2497190796903</v>
+        <f t="shared" ref="AD40" si="108">IF(AD39&gt;0,AD39*0.19,0)</f>
+        <v>10025.927219079691</v>
       </c>
       <c r="AE40" s="44">
-        <f t="shared" ref="AE40" si="106">IF(AE39&gt;0,AE39*0.19,0)</f>
-        <v>9440.1341743953035</v>
+        <f t="shared" ref="AE40" si="109">IF(AE39&gt;0,AE39*0.19,0)</f>
+        <v>12532.811674395303</v>
       </c>
       <c r="AF40" s="204">
-        <f t="shared" ref="AF40" si="107">IF(AF39&gt;0,AF39*0.19,0)</f>
-        <v>11355.057270859368</v>
+        <f t="shared" ref="AF40" si="110">IF(AF39&gt;0,AF39*0.19,0)</f>
+        <v>14447.73477085937</v>
       </c>
       <c r="AG40" s="209">
-        <f t="shared" ref="AG40" si="108">IF(AG39&gt;0,AG39*0.19,0)</f>
-        <v>28822.587716172249</v>
+        <f t="shared" ref="AG40" si="111">IF(AG39&gt;0,AG39*0.19,0)</f>
+        <v>41474.450216172256</v>
       </c>
       <c r="AH40" s="44">
-        <f t="shared" ref="AH40" si="109">IF(AH39&gt;0,AH39*0.19,0)</f>
-        <v>10741.85081922714</v>
+        <f t="shared" ref="AH40" si="112">IF(AH39&gt;0,AH39*0.19,0)</f>
+        <v>18239.250819227134</v>
       </c>
       <c r="AI40" s="44">
-        <f t="shared" ref="AI40" si="110">IF(AI39&gt;0,AI39*0.19,0)</f>
-        <v>25617.607353883272</v>
+        <f t="shared" ref="AI40" si="113">IF(AI39&gt;0,AI39*0.19,0)</f>
+        <v>32740.13735388327</v>
       </c>
       <c r="AJ40" s="44">
-        <f t="shared" ref="AJ40" si="111">IF(AJ39&gt;0,AJ39*0.19,0)</f>
-        <v>34567.746601109204</v>
+        <f t="shared" ref="AJ40" si="114">IF(AJ39&gt;0,AJ39*0.19,0)</f>
+        <v>41127.971601109202</v>
       </c>
       <c r="AK40" s="204">
-        <f t="shared" ref="AK40" si="112">IF(AK39&gt;0,AK39*0.19,0)</f>
-        <v>49460.069722976543</v>
+        <f t="shared" ref="AK40" si="115">IF(AK39&gt;0,AK39*0.19,0)</f>
+        <v>56020.294722976541</v>
       </c>
       <c r="AL40" s="209">
-        <f t="shared" ref="AL40" si="113">IF(AL39&gt;0,AL39*0.19,0)</f>
-        <v>120387.27449719617</v>
+        <f t="shared" ref="AL40" si="116">IF(AL39&gt;0,AL39*0.19,0)</f>
+        <v>148127.65449719617</v>
       </c>
       <c r="AM40" s="80"/>
     </row>
@@ -12292,154 +12176,154 @@
         <v>-70.2</v>
       </c>
       <c r="C41" s="45">
-        <f t="shared" ref="C41:E41" si="114">C39-C40</f>
+        <f t="shared" ref="C41:E41" si="117">C39-C40</f>
         <v>-80.599999999999994</v>
       </c>
       <c r="D41" s="45">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>-81</v>
       </c>
       <c r="E41" s="45">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>-231.8</v>
       </c>
       <c r="F41" s="45">
-        <f t="shared" ref="F41" si="115">F39-F40</f>
+        <f t="shared" ref="F41" si="118">F39-F40</f>
         <v>-209.13781290796487</v>
       </c>
       <c r="G41" s="45">
-        <f t="shared" ref="G41:H41" si="116">G39-G40</f>
+        <f t="shared" ref="G41:H41" si="119">G39-G40</f>
         <v>-113.14947603675847</v>
       </c>
       <c r="H41" s="45">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>-4188.311762787057</v>
       </c>
       <c r="I41" s="45">
-        <f t="shared" ref="I41" si="117">I39-I40</f>
+        <f t="shared" ref="I41" si="120">I39-I40</f>
         <v>-4108.3894258327637</v>
       </c>
       <c r="J41" s="45">
-        <f t="shared" ref="J41:K41" si="118">J39-J40</f>
+        <f t="shared" ref="J41:K41" si="121">J39-J40</f>
         <v>-3962.170148023517</v>
       </c>
       <c r="K41" s="45">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>-3887.6735412307771</v>
       </c>
       <c r="L41" s="45">
-        <f t="shared" ref="L41" si="119">L39-L40</f>
+        <f t="shared" ref="L41" si="122">L39-L40</f>
         <v>-3779.7309553360269</v>
       </c>
       <c r="M41" s="45">
-        <f t="shared" ref="M41:N41" si="120">M39-M40</f>
+        <f t="shared" ref="M41:N41" si="123">M39-M40</f>
         <v>-4670.8086036383338</v>
       </c>
       <c r="N41" s="45">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-4430.9690502536396</v>
       </c>
       <c r="O41" s="45">
-        <f t="shared" ref="O41" si="121">O39-O40</f>
+        <f t="shared" ref="O41" si="124">O39-O40</f>
         <v>-3983.8489357281228</v>
       </c>
       <c r="P41" s="45">
-        <f t="shared" ref="P41:Q41" si="122">P39-P40</f>
+        <f t="shared" ref="P41:Q41" si="125">P39-P40</f>
         <v>-3350.3339808789551</v>
       </c>
       <c r="Q41" s="205">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>-2839.462211738361</v>
       </c>
       <c r="R41" s="45">
-        <f t="shared" ref="R41" si="123">R39-R40</f>
+        <f t="shared" ref="R41" si="126">R39-R40</f>
         <v>-39523.985904392277</v>
       </c>
       <c r="S41" s="45">
-        <f t="shared" ref="S41:T41" si="124">S39-S40</f>
+        <f t="shared" ref="S41:T41" si="127">S39-S40</f>
         <v>-25728.48845703125</v>
       </c>
       <c r="T41" s="45">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-10242.028734374999</v>
       </c>
       <c r="U41" s="45">
-        <f t="shared" ref="U41" si="125">U39-U40</f>
+        <f t="shared" ref="U41" si="128">U39-U40</f>
         <v>-6613.6490156250002</v>
       </c>
       <c r="V41" s="205">
-        <f t="shared" ref="V41:W41" si="126">V39-V40</f>
+        <f t="shared" ref="V41:W41" si="129">V39-V40</f>
         <v>-4671.5804687499985</v>
       </c>
       <c r="W41" s="210">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>-47255.746675781251</v>
       </c>
       <c r="X41" s="45">
-        <f t="shared" ref="X41" si="127">X39-X40</f>
-        <v>-18937.223451171885</v>
+        <f t="shared" ref="X41" si="130">X39-X40</f>
+        <v>-19529.123451171879</v>
       </c>
       <c r="Y41" s="45">
-        <f t="shared" ref="Y41:Z41" si="128">Y39-Y40</f>
-        <v>-5796.4660890624946</v>
+        <f t="shared" ref="Y41:Z41" si="131">Y39-Y40</f>
+        <v>-1061.2660890624975</v>
       </c>
       <c r="Z41" s="45">
-        <f t="shared" si="128"/>
-        <v>-3451.1927359374968</v>
+        <f t="shared" si="131"/>
+        <v>1040.0458838906252</v>
       </c>
       <c r="AA41" s="205">
-        <f t="shared" ref="AA41" si="129">AA39-AA40</f>
-        <v>5561.1075867187537</v>
+        <f t="shared" ref="AA41" si="132">AA39-AA40</f>
+        <v>9396.6195867187507</v>
       </c>
       <c r="AB41" s="210">
-        <f t="shared" ref="AB41:AC41" si="130">AB39-AB40</f>
-        <v>-21319.317354296873</v>
+        <f t="shared" ref="AB41:AC41" si="133">AB39-AB40</f>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="AC41" s="45">
-        <f t="shared" si="130"/>
-        <v>4664.5195104667891</v>
+        <f t="shared" si="133"/>
+        <v>19047.689510466789</v>
       </c>
       <c r="AD41" s="45">
-        <f t="shared" ref="AD41" si="131">AD39-AD40</f>
-        <v>29557.538276076575</v>
+        <f t="shared" ref="AD41" si="134">AD39-AD40</f>
+        <v>42742.110776076574</v>
       </c>
       <c r="AE41" s="45">
-        <f t="shared" ref="AE41:AF41" si="132">AE39-AE40</f>
-        <v>40244.782532948397</v>
+        <f t="shared" ref="AE41:AF41" si="135">AE39-AE40</f>
+        <v>53429.355032948399</v>
       </c>
       <c r="AF41" s="205">
-        <f t="shared" si="132"/>
-        <v>48408.4020494531</v>
+        <f t="shared" si="135"/>
+        <v>61592.974549453094</v>
       </c>
       <c r="AG41" s="210">
-        <f t="shared" ref="AG41" si="133">AG39-AG40</f>
-        <v>122875.24236894486</v>
+        <f t="shared" ref="AG41" si="136">AG39-AG40</f>
+        <v>176812.12986894487</v>
       </c>
       <c r="AH41" s="45">
-        <f t="shared" ref="AH41:AI41" si="134">AH39-AH40</f>
-        <v>45794.206124073593</v>
+        <f t="shared" ref="AH41:AI41" si="137">AH39-AH40</f>
+        <v>77756.80612407357</v>
       </c>
       <c r="AI41" s="45">
-        <f t="shared" si="134"/>
-        <v>109211.90503497605</v>
+        <f t="shared" si="137"/>
+        <v>139576.37503497605</v>
       </c>
       <c r="AJ41" s="45">
-        <f t="shared" ref="AJ41" si="135">AJ39-AJ40</f>
-        <v>147367.76182578132</v>
+        <f t="shared" ref="AJ41" si="138">AJ39-AJ40</f>
+        <v>175335.03682578134</v>
       </c>
       <c r="AK41" s="205">
-        <f t="shared" ref="AK41:AL41" si="136">AK39-AK40</f>
-        <v>210856.08671374212</v>
+        <f t="shared" ref="AK41:AL41" si="139">AK39-AK40</f>
+        <v>238823.36171374211</v>
       </c>
       <c r="AL41" s="210">
-        <f t="shared" si="136"/>
-        <v>513229.9596985731</v>
+        <f t="shared" si="139"/>
+        <v>631491.5796985731</v>
       </c>
       <c r="AM41" s="80"/>
     </row>
     <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="100">
         <f>B41</f>
@@ -12450,144 +12334,144 @@
         <v>-150.80000000000001</v>
       </c>
       <c r="D42" s="100">
-        <f t="shared" ref="D42:I42" si="137">C42+D41</f>
+        <f t="shared" ref="D42:I42" si="140">C42+D41</f>
         <v>-231.8</v>
       </c>
       <c r="E42" s="100">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>-463.6</v>
       </c>
       <c r="F42" s="100">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>-672.73781290796489</v>
       </c>
       <c r="G42" s="100">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>-785.88728894472342</v>
       </c>
       <c r="H42" s="100">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>-4974.1990517317809</v>
       </c>
       <c r="I42" s="100">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>-9082.5884775645445</v>
       </c>
       <c r="J42" s="100">
-        <f t="shared" ref="J42" si="138">I42+J41</f>
+        <f t="shared" ref="J42" si="141">I42+J41</f>
         <v>-13044.758625588061</v>
       </c>
       <c r="K42" s="100">
-        <f t="shared" ref="K42" si="139">J42+K41</f>
+        <f t="shared" ref="K42" si="142">J42+K41</f>
         <v>-16932.432166818839</v>
       </c>
       <c r="L42" s="100">
-        <f t="shared" ref="L42" si="140">K42+L41</f>
+        <f t="shared" ref="L42" si="143">K42+L41</f>
         <v>-20712.163122154867</v>
       </c>
       <c r="M42" s="100">
-        <f t="shared" ref="M42" si="141">L42+M41</f>
+        <f t="shared" ref="M42" si="144">L42+M41</f>
         <v>-25382.971725793199</v>
       </c>
       <c r="N42" s="100">
-        <f t="shared" ref="N42:O42" si="142">M42+N41</f>
+        <f t="shared" ref="N42:O42" si="145">M42+N41</f>
         <v>-29813.940776046838</v>
       </c>
       <c r="O42" s="100">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>-33797.78971177496</v>
       </c>
       <c r="P42" s="100">
-        <f t="shared" ref="P42" si="143">O42+P41</f>
+        <f t="shared" ref="P42" si="146">O42+P41</f>
         <v>-37148.123692653913</v>
       </c>
       <c r="Q42" s="206">
-        <f t="shared" ref="Q42" si="144">P42+Q41</f>
+        <f t="shared" ref="Q42" si="147">P42+Q41</f>
         <v>-39987.585904392276</v>
       </c>
       <c r="R42" s="100">
-        <f t="shared" ref="R42" si="145">Q42+R41</f>
+        <f t="shared" ref="R42" si="148">Q42+R41</f>
         <v>-79511.57180878456</v>
       </c>
       <c r="S42" s="100">
-        <f t="shared" ref="S42" si="146">R42+S41</f>
+        <f t="shared" ref="S42" si="149">R42+S41</f>
         <v>-105240.06026581582</v>
       </c>
       <c r="T42" s="100">
-        <f t="shared" ref="T42:U42" si="147">S42+T41</f>
+        <f t="shared" ref="T42:U42" si="150">S42+T41</f>
         <v>-115482.08900019081</v>
       </c>
       <c r="U42" s="100">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>-122095.73801581582</v>
       </c>
       <c r="V42" s="206">
-        <f t="shared" ref="V42" si="148">U42+V41</f>
+        <f t="shared" ref="V42" si="151">U42+V41</f>
         <v>-126767.31848456583</v>
       </c>
       <c r="W42" s="211">
-        <f t="shared" ref="W42" si="149">V42+W41</f>
+        <f t="shared" ref="W42" si="152">V42+W41</f>
         <v>-174023.06516034709</v>
       </c>
       <c r="X42" s="100">
-        <f t="shared" ref="X42" si="150">W42+X41</f>
-        <v>-192960.28861151898</v>
+        <f t="shared" ref="X42" si="153">W42+X41</f>
+        <v>-193552.18861151897</v>
       </c>
       <c r="Y42" s="100">
-        <f t="shared" ref="Y42" si="151">X42+Y41</f>
-        <v>-198756.75470058148</v>
+        <f t="shared" ref="Y42" si="154">X42+Y41</f>
+        <v>-194613.45470058147</v>
       </c>
       <c r="Z42" s="100">
-        <f t="shared" ref="Z42:AA42" si="152">Y42+Z41</f>
-        <v>-202207.94743651897</v>
+        <f t="shared" ref="Z42:AA42" si="155">Y42+Z41</f>
+        <v>-193573.40881669085</v>
       </c>
       <c r="AA42" s="206">
-        <f t="shared" si="152"/>
-        <v>-196646.83984980022</v>
+        <f t="shared" si="155"/>
+        <v>-184176.78922997208</v>
       </c>
       <c r="AB42" s="211">
-        <f t="shared" ref="AB42" si="153">AA42+AB41</f>
-        <v>-217966.15720409708</v>
+        <f t="shared" ref="AB42" si="156">AA42+AB41</f>
+        <v>-191882.40658426896</v>
       </c>
       <c r="AC42" s="100">
-        <f t="shared" ref="AC42" si="154">AB42+AC41</f>
-        <v>-213301.6376936303</v>
+        <f t="shared" ref="AC42" si="157">AB42+AC41</f>
+        <v>-172834.71707380217</v>
       </c>
       <c r="AD42" s="100">
-        <f t="shared" ref="AD42" si="155">AC42+AD41</f>
-        <v>-183744.09941755372</v>
+        <f t="shared" ref="AD42" si="158">AC42+AD41</f>
+        <v>-130092.60629772559</v>
       </c>
       <c r="AE42" s="100">
-        <f t="shared" ref="AE42" si="156">AD42+AE41</f>
-        <v>-143499.31688460533</v>
+        <f t="shared" ref="AE42" si="159">AD42+AE41</f>
+        <v>-76663.251264777195</v>
       </c>
       <c r="AF42" s="206">
-        <f t="shared" ref="AF42:AG42" si="157">AE42+AF41</f>
-        <v>-95090.914835152231</v>
+        <f t="shared" ref="AF42:AG42" si="160">AE42+AF41</f>
+        <v>-15070.2767153241</v>
       </c>
       <c r="AG42" s="211">
-        <f t="shared" si="157"/>
-        <v>27784.327533792632</v>
+        <f t="shared" si="160"/>
+        <v>161741.85315362079</v>
       </c>
       <c r="AH42" s="100">
-        <f t="shared" ref="AH42" si="158">AG42+AH41</f>
-        <v>73578.533657866225</v>
+        <f t="shared" ref="AH42" si="161">AG42+AH41</f>
+        <v>239498.65927769436</v>
       </c>
       <c r="AI42" s="100">
-        <f t="shared" ref="AI42" si="159">AH42+AI41</f>
-        <v>182790.43869284226</v>
+        <f t="shared" ref="AI42" si="162">AH42+AI41</f>
+        <v>379075.03431267041</v>
       </c>
       <c r="AJ42" s="100">
-        <f t="shared" ref="AJ42" si="160">AI42+AJ41</f>
-        <v>330158.20051862358</v>
+        <f t="shared" ref="AJ42" si="163">AI42+AJ41</f>
+        <v>554410.07113845181</v>
       </c>
       <c r="AK42" s="206">
-        <f t="shared" ref="AK42" si="161">AJ42+AK41</f>
-        <v>541014.28723236569</v>
+        <f t="shared" ref="AK42" si="164">AJ42+AK41</f>
+        <v>793233.43285219395</v>
       </c>
       <c r="AL42" s="211">
-        <f t="shared" ref="AL42" si="162">AK42+AL41</f>
-        <v>1054244.2469309387</v>
+        <f t="shared" ref="AL42" si="165">AK42+AL41</f>
+        <v>1424725.012550767</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -12632,7 +12516,7 @@
     </row>
     <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="100"/>
@@ -12674,7 +12558,7 @@
     </row>
     <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="100"/>
@@ -12685,178 +12569,178 @@
       </c>
       <c r="G45" s="100">
         <f>F48</f>
-        <v>129790.86218709203</v>
+        <v>39790.862187092032</v>
       </c>
       <c r="H45" s="100">
-        <f t="shared" ref="H45:Q45" si="163">G48</f>
-        <v>129677.71271105527</v>
+        <f t="shared" ref="H45:Q45" si="166">G48</f>
+        <v>39677.712711055276</v>
       </c>
       <c r="I45" s="100">
-        <f t="shared" si="163"/>
-        <v>125489.40094826822</v>
+        <f t="shared" si="166"/>
+        <v>35489.400948268216</v>
       </c>
       <c r="J45" s="100">
-        <f t="shared" si="163"/>
-        <v>121381.01152243545</v>
+        <f t="shared" si="166"/>
+        <v>31381.011522435452</v>
       </c>
       <c r="K45" s="100">
-        <f t="shared" si="163"/>
-        <v>117418.84137441193</v>
+        <f t="shared" si="166"/>
+        <v>27418.841374411935</v>
       </c>
       <c r="L45" s="100">
-        <f t="shared" si="163"/>
-        <v>113531.16783318116</v>
+        <f t="shared" si="166"/>
+        <v>23531.167833181156</v>
       </c>
       <c r="M45" s="100">
-        <f t="shared" si="163"/>
-        <v>109751.43687784513</v>
+        <f t="shared" si="166"/>
+        <v>19751.436877845128</v>
       </c>
       <c r="N45" s="100">
-        <f t="shared" si="163"/>
-        <v>105080.6282742068</v>
+        <f t="shared" si="166"/>
+        <v>15080.628274206794</v>
       </c>
       <c r="O45" s="100">
-        <f t="shared" si="163"/>
-        <v>100649.65922395316</v>
+        <f t="shared" si="166"/>
+        <v>10649.659223953155</v>
       </c>
       <c r="P45" s="100">
-        <f t="shared" si="163"/>
-        <v>96665.810288225039</v>
+        <f t="shared" si="166"/>
+        <v>6665.8102882250314</v>
       </c>
       <c r="Q45" s="100">
-        <f t="shared" si="163"/>
-        <v>93315.476307346078</v>
+        <f t="shared" si="166"/>
+        <v>3315.4763073460763</v>
       </c>
       <c r="R45" s="100"/>
       <c r="S45" s="100">
         <f>Q48</f>
-        <v>90476.014095607723</v>
+        <v>476.01409560771526</v>
       </c>
       <c r="T45" s="100">
         <f>S48</f>
-        <v>64747.525638576473</v>
+        <v>74747.525638576451</v>
       </c>
       <c r="U45" s="100">
-        <f t="shared" ref="U45:V45" si="164">T48</f>
-        <v>54505.496904201471</v>
+        <f t="shared" ref="U45:V45" si="167">T48</f>
+        <v>64505.496904201456</v>
       </c>
       <c r="V45" s="100">
-        <f t="shared" si="164"/>
-        <v>47891.847888576471</v>
+        <f t="shared" si="167"/>
+        <v>57891.847888576456</v>
       </c>
       <c r="W45" s="100"/>
       <c r="X45" s="100">
         <f>V48</f>
-        <v>43220.267419826472</v>
+        <v>53220.267419826458</v>
       </c>
       <c r="Y45" s="100">
         <f>X48</f>
-        <v>24283.043968654587</v>
+        <v>33691.143968654578</v>
       </c>
       <c r="Z45" s="100">
-        <f t="shared" ref="Z45:AA45" si="165">Y48</f>
-        <v>18486.577879592092</v>
+        <f t="shared" ref="Z45:AA45" si="168">Y48</f>
+        <v>32629.877879592081</v>
       </c>
       <c r="AA45" s="100">
-        <f t="shared" si="165"/>
-        <v>15035.385143654596</v>
+        <f t="shared" si="168"/>
+        <v>33913.885143654581</v>
       </c>
       <c r="AB45" s="100"/>
       <c r="AC45" s="100">
         <f>AA48</f>
-        <v>21900.9500655296</v>
+        <v>45514.650065529582</v>
       </c>
       <c r="AD45" s="100">
         <f>AC48</f>
-        <v>27659.616127834277</v>
+        <v>69030.31612783426</v>
       </c>
       <c r="AE45" s="100">
-        <f t="shared" ref="AE45:AF45" si="166">AD48</f>
-        <v>64150.404122990542</v>
+        <f t="shared" ref="AE45:AF45" si="169">AD48</f>
+        <v>121798.35412299052</v>
       </c>
       <c r="AF45" s="100">
-        <f t="shared" si="166"/>
-        <v>113835.32083033424</v>
+        <f t="shared" si="169"/>
+        <v>187760.52083033422</v>
       </c>
       <c r="AG45" s="100"/>
       <c r="AH45" s="100">
         <f>AF48</f>
-        <v>173598.78015064669</v>
+        <v>263801.2301506467</v>
       </c>
       <c r="AI45" s="100">
         <f>AH48</f>
-        <v>230134.83709394743</v>
+        <v>359797.28709394741</v>
       </c>
       <c r="AJ45" s="100">
-        <f t="shared" ref="AJ45:AK45" si="167">AI48</f>
-        <v>364964.34948280675</v>
+        <f t="shared" ref="AJ45:AK45" si="170">AI48</f>
+        <v>532113.7994828067</v>
       </c>
       <c r="AK45" s="100">
-        <f t="shared" si="167"/>
-        <v>546899.85790969734</v>
+        <f t="shared" si="170"/>
+        <v>748576.80790969729</v>
       </c>
       <c r="AL45" s="100"/>
     </row>
     <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="174" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="100"/>
       <c r="D46" s="100"/>
       <c r="E46" s="100"/>
       <c r="F46" s="100">
-        <f t="shared" ref="F46:Q46" si="168">(F12+F4)</f>
-        <v>130100.35636361757</v>
+        <f t="shared" ref="F46:Q46" si="171">(F12+F4)</f>
+        <v>40100.356363617568</v>
       </c>
       <c r="G46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>143.36623373938659</v>
       </c>
       <c r="H46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>240.65046377682745</v>
       </c>
       <c r="I46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>380.94456393608436</v>
       </c>
       <c r="J46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>479.25283850023521</v>
       </c>
       <c r="K46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>642.07591824710994</v>
       </c>
       <c r="L46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>963.62589963401979</v>
       </c>
       <c r="M46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>1276.9835248072504</v>
       </c>
       <c r="N46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>1787.9817436354929</v>
       </c>
       <c r="O46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>2433.1297954627321</v>
       </c>
       <c r="P46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>3015.8111311606681</v>
       </c>
       <c r="Q46" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>3748.0029677582493</v>
       </c>
       <c r="R46" s="100"/>
       <c r="S46" s="100">
         <f>(S12+S4)</f>
-        <v>18893.2421875</v>
+        <v>118893.2421875</v>
       </c>
       <c r="T46" s="100">
         <f>(T12+T4)</f>
@@ -12873,110 +12757,110 @@
       <c r="W46" s="100"/>
       <c r="X46" s="100">
         <f>(X12+X4)</f>
-        <v>44054.457031249993</v>
+        <v>43454.457031249993</v>
       </c>
       <c r="Y46" s="100">
         <f>(Y12+Y4)</f>
-        <v>51078.159375000003</v>
+        <v>55878.159375000003</v>
       </c>
       <c r="Z46" s="100">
         <f>(Z12+Z4)</f>
-        <v>60146.915625000001</v>
+        <v>64946.915625000001</v>
       </c>
       <c r="AA46" s="100">
         <f>(AA12+AA4)</f>
-        <v>76772.96875</v>
+        <v>81572.96875</v>
       </c>
       <c r="AB46" s="100"/>
       <c r="AC46" s="100">
         <f>(AC12+AC4)</f>
-        <v>104445.25117187497</v>
+        <v>122445.25117187497</v>
       </c>
       <c r="AD46" s="100">
         <f>(AD12+AD4)</f>
-        <v>120719.76656250001</v>
+        <v>137219.76656250001</v>
       </c>
       <c r="AE46" s="100">
         <f>(AE12+AE4)</f>
-        <v>141577.90593749995</v>
+        <v>158077.90593749995</v>
       </c>
       <c r="AF46" s="100">
         <f>(AF12+AF4)</f>
-        <v>179817.82812499997</v>
+        <v>196317.82812499997</v>
       </c>
       <c r="AG46" s="100"/>
       <c r="AH46" s="100">
         <f>(AH12+AH4)</f>
-        <v>239874.07769531242</v>
+        <v>279874.07769531239</v>
       </c>
       <c r="AI46" s="100">
         <f>(AI12+AI4)</f>
-        <v>275855.46309374995</v>
+        <v>313855.46309374995</v>
       </c>
       <c r="AJ46" s="100">
         <f>(AJ12+AJ4)</f>
-        <v>326829.18365624989</v>
+        <v>361829.18365624989</v>
       </c>
       <c r="AK46" s="100">
         <f>(AK12+AK4)</f>
-        <v>414781.0046874999</v>
+        <v>449781.0046874999</v>
       </c>
       <c r="AL46" s="100"/>
     </row>
     <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="174" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="100"/>
       <c r="D47" s="100"/>
       <c r="E47" s="100"/>
       <c r="F47" s="100">
-        <f t="shared" ref="F47:Q47" si="169">F38+F18</f>
+        <f t="shared" ref="F47:Q47" si="172">F38+F18</f>
         <v>309.49417652553547</v>
       </c>
       <c r="G47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>256.51570977614506</v>
       </c>
       <c r="H47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>4428.9622265638845</v>
       </c>
       <c r="I47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>4489.3339897688484</v>
       </c>
       <c r="J47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>4441.4229865237521</v>
       </c>
       <c r="K47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>4529.7494594778873</v>
       </c>
       <c r="L47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>4743.3568549700467</v>
       </c>
       <c r="M47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>5947.7921284455842</v>
       </c>
       <c r="N47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>6218.950793889132</v>
       </c>
       <c r="O47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>6416.9787311908549</v>
       </c>
       <c r="P47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>6366.1451120396232</v>
       </c>
       <c r="Q47" s="100">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>6587.4651794966103</v>
       </c>
       <c r="R47" s="100"/>
@@ -12999,59 +12883,59 @@
       <c r="W47" s="100"/>
       <c r="X47" s="100">
         <f>X38+X18</f>
-        <v>62991.680482421878</v>
+        <v>62983.580482421872</v>
       </c>
       <c r="Y47" s="100">
         <f>Y38+Y18</f>
-        <v>56874.625464062497</v>
+        <v>56939.4254640625</v>
       </c>
       <c r="Z47" s="100">
         <f>Z38+Z18</f>
-        <v>63598.108360937498</v>
+        <v>63662.908360937501</v>
       </c>
       <c r="AA47" s="100">
         <f>AA38+AA18</f>
-        <v>69907.403828124996</v>
+        <v>69972.203828124999</v>
       </c>
       <c r="AB47" s="100"/>
       <c r="AC47" s="100">
         <f>AC38+AC18</f>
-        <v>98686.585109570296</v>
+        <v>98929.585109570296</v>
       </c>
       <c r="AD47" s="100">
         <f>AD38+AD18</f>
-        <v>84228.978567343744</v>
+        <v>84451.728567343744</v>
       </c>
       <c r="AE47" s="100">
         <f>AE38+AE18</f>
-        <v>91892.98923015625</v>
+        <v>92115.73923015625</v>
       </c>
       <c r="AF47" s="100">
         <f>AF38+AF18</f>
-        <v>120054.3688046875</v>
+        <v>120277.1188046875</v>
       </c>
       <c r="AG47" s="100"/>
       <c r="AH47" s="100">
         <f>AH38+AH18</f>
-        <v>183338.02075201168</v>
+        <v>183878.02075201168</v>
       </c>
       <c r="AI47" s="100">
         <f>AI38+AI18</f>
-        <v>141025.95070489062</v>
+        <v>141538.95070489062</v>
       </c>
       <c r="AJ47" s="100">
         <f>AJ38+AJ18</f>
-        <v>144893.67522935936</v>
+        <v>145366.17522935936</v>
       </c>
       <c r="AK47" s="100">
         <f>AK38+AK18</f>
-        <v>154464.84825078124</v>
+        <v>154937.34825078124</v>
       </c>
       <c r="AL47" s="100"/>
     </row>
     <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="100"/>
@@ -13059,119 +12943,119 @@
       <c r="E48" s="100"/>
       <c r="F48" s="100">
         <f>F46-F47</f>
-        <v>129790.86218709203</v>
+        <v>39790.862187092032</v>
       </c>
       <c r="G48" s="100">
         <f>G45+(G46-G47)</f>
-        <v>129677.71271105527</v>
+        <v>39677.712711055276</v>
       </c>
       <c r="H48" s="100">
-        <f t="shared" ref="H48:S48" si="170">H45+(H46-H47)</f>
-        <v>125489.40094826822</v>
+        <f t="shared" ref="H48:S48" si="173">H45+(H46-H47)</f>
+        <v>35489.400948268216</v>
       </c>
       <c r="I48" s="100">
-        <f t="shared" si="170"/>
-        <v>121381.01152243545</v>
+        <f t="shared" si="173"/>
+        <v>31381.011522435452</v>
       </c>
       <c r="J48" s="100">
-        <f t="shared" si="170"/>
-        <v>117418.84137441193</v>
+        <f t="shared" si="173"/>
+        <v>27418.841374411935</v>
       </c>
       <c r="K48" s="100">
-        <f t="shared" si="170"/>
-        <v>113531.16783318116</v>
+        <f t="shared" si="173"/>
+        <v>23531.167833181156</v>
       </c>
       <c r="L48" s="100">
-        <f t="shared" si="170"/>
-        <v>109751.43687784513</v>
+        <f t="shared" si="173"/>
+        <v>19751.436877845128</v>
       </c>
       <c r="M48" s="100">
-        <f t="shared" si="170"/>
-        <v>105080.6282742068</v>
+        <f t="shared" si="173"/>
+        <v>15080.628274206794</v>
       </c>
       <c r="N48" s="100">
-        <f t="shared" si="170"/>
-        <v>100649.65922395316</v>
+        <f t="shared" si="173"/>
+        <v>10649.659223953155</v>
       </c>
       <c r="O48" s="100">
-        <f t="shared" si="170"/>
-        <v>96665.810288225039</v>
+        <f t="shared" si="173"/>
+        <v>6665.8102882250314</v>
       </c>
       <c r="P48" s="100">
-        <f t="shared" si="170"/>
-        <v>93315.476307346078</v>
+        <f t="shared" si="173"/>
+        <v>3315.4763073460763</v>
       </c>
       <c r="Q48" s="100">
-        <f t="shared" si="170"/>
-        <v>90476.014095607723</v>
+        <f t="shared" si="173"/>
+        <v>476.01409560771526</v>
       </c>
       <c r="R48" s="100"/>
       <c r="S48" s="100">
-        <f t="shared" si="170"/>
-        <v>64747.525638576473</v>
+        <f t="shared" si="173"/>
+        <v>74747.525638576451</v>
       </c>
       <c r="T48" s="100">
-        <f t="shared" ref="T48" si="171">T45+(T46-T47)</f>
-        <v>54505.496904201471</v>
+        <f t="shared" ref="T48" si="174">T45+(T46-T47)</f>
+        <v>64505.496904201456</v>
       </c>
       <c r="U48" s="100">
-        <f t="shared" ref="U48" si="172">U45+(U46-U47)</f>
-        <v>47891.847888576471</v>
+        <f t="shared" ref="U48" si="175">U45+(U46-U47)</f>
+        <v>57891.847888576456</v>
       </c>
       <c r="V48" s="100">
-        <f t="shared" ref="V48:X48" si="173">V45+(V46-V47)</f>
-        <v>43220.267419826472</v>
+        <f t="shared" ref="V48:X48" si="176">V45+(V46-V47)</f>
+        <v>53220.267419826458</v>
       </c>
       <c r="W48" s="100"/>
       <c r="X48" s="100">
-        <f t="shared" si="173"/>
-        <v>24283.043968654587</v>
+        <f t="shared" si="176"/>
+        <v>33691.143968654578</v>
       </c>
       <c r="Y48" s="100">
-        <f t="shared" ref="Y48" si="174">Y45+(Y46-Y47)</f>
-        <v>18486.577879592092</v>
+        <f t="shared" ref="Y48" si="177">Y45+(Y46-Y47)</f>
+        <v>32629.877879592081</v>
       </c>
       <c r="Z48" s="100">
-        <f t="shared" ref="Z48" si="175">Z45+(Z46-Z47)</f>
-        <v>15035.385143654596</v>
+        <f t="shared" ref="Z48" si="178">Z45+(Z46-Z47)</f>
+        <v>33913.885143654581</v>
       </c>
       <c r="AA48" s="100">
-        <f t="shared" ref="AA48:AD48" si="176">AA45+(AA46-AA47)</f>
-        <v>21900.9500655296</v>
+        <f t="shared" ref="AA48:AD48" si="179">AA45+(AA46-AA47)</f>
+        <v>45514.650065529582</v>
       </c>
       <c r="AB48" s="100"/>
       <c r="AC48" s="100">
-        <f t="shared" si="176"/>
-        <v>27659.616127834277</v>
+        <f t="shared" si="179"/>
+        <v>69030.31612783426</v>
       </c>
       <c r="AD48" s="100">
-        <f t="shared" si="176"/>
-        <v>64150.404122990542</v>
+        <f t="shared" si="179"/>
+        <v>121798.35412299052</v>
       </c>
       <c r="AE48" s="100">
-        <f t="shared" ref="AE48" si="177">AE45+(AE46-AE47)</f>
-        <v>113835.32083033424</v>
+        <f t="shared" ref="AE48" si="180">AE45+(AE46-AE47)</f>
+        <v>187760.52083033422</v>
       </c>
       <c r="AF48" s="100">
-        <f t="shared" ref="AF48:AI48" si="178">AF45+(AF46-AF47)</f>
-        <v>173598.78015064669</v>
+        <f t="shared" ref="AF48:AI48" si="181">AF45+(AF46-AF47)</f>
+        <v>263801.2301506467</v>
       </c>
       <c r="AG48" s="100"/>
       <c r="AH48" s="100">
-        <f t="shared" si="178"/>
-        <v>230134.83709394743</v>
+        <f t="shared" si="181"/>
+        <v>359797.28709394741</v>
       </c>
       <c r="AI48" s="100">
-        <f t="shared" si="178"/>
-        <v>364964.34948280675</v>
+        <f t="shared" si="181"/>
+        <v>532113.7994828067</v>
       </c>
       <c r="AJ48" s="100">
-        <f t="shared" ref="AJ48" si="179">AJ45+(AJ46-AJ47)</f>
-        <v>546899.85790969734</v>
+        <f t="shared" ref="AJ48" si="182">AJ45+(AJ46-AJ47)</f>
+        <v>748576.80790969729</v>
       </c>
       <c r="AK48" s="100">
-        <f t="shared" ref="AK48" si="180">AK45+(AK46-AK47)</f>
-        <v>807216.01434641599</v>
+        <f t="shared" ref="AK48" si="183">AK45+(AK46-AK47)</f>
+        <v>1043420.4643464159</v>
       </c>
       <c r="AL48" s="100"/>
     </row>
@@ -13309,7 +13193,6 @@
       <c r="S51">
         <v>0.37</v>
       </c>
-      <c r="Y51" s="19"/>
       <c r="AI51" s="19"/>
     </row>
     <row r="52" spans="1:38" ht="16.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -13615,7 +13498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -13637,31 +13520,31 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="150" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="150" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" s="150" t="s">
         <v>4</v>
@@ -13684,17 +13567,17 @@
       <c r="E3" s="153"/>
       <c r="F3" s="154">
         <f>'P&amp;L Statement'!AB12</f>
-        <v>232052.50078124998</v>
+        <v>245852.50078124998</v>
       </c>
       <c r="G3" s="153"/>
       <c r="H3" s="153">
         <f>'P&amp;L Statement'!AG12</f>
-        <v>546560.75179687492</v>
+        <v>614060.75179687492</v>
       </c>
       <c r="I3" s="153"/>
       <c r="J3" s="153">
         <f>'P&amp;L Statement'!AL12</f>
-        <v>1257339.7291328122</v>
+        <v>1405339.7291328122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -13744,17 +13627,17 @@
       <c r="E5" s="153"/>
       <c r="F5" s="154">
         <f>'P&amp;L Statement'!AB19</f>
-        <v>214605.39140624998</v>
+        <v>228405.39140624998</v>
       </c>
       <c r="G5" s="153"/>
       <c r="H5" s="155">
         <f>'P&amp;L Statement'!AG19</f>
-        <v>507368.40023437492</v>
+        <v>574868.40023437492</v>
       </c>
       <c r="I5" s="153"/>
       <c r="J5" s="155">
         <f>'P&amp;L Statement'!AL19</f>
-        <v>1168133.3205390624</v>
+        <v>1316133.3205390624</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -13774,17 +13657,17 @@
       <c r="E6" s="155"/>
       <c r="F6" s="155">
         <f>'P&amp;L Statement'!AB38</f>
-        <v>235924.70876054687</v>
+        <v>236111.00876054689</v>
       </c>
       <c r="G6" s="155"/>
       <c r="H6" s="155">
         <f>'P&amp;L Statement'!AG38</f>
-        <v>355670.57014925784</v>
+        <v>356581.82014925784</v>
       </c>
       <c r="I6" s="155"/>
       <c r="J6" s="155">
         <f>'P&amp;L Statement'!AL38</f>
-        <v>534516.08634329296</v>
+        <v>536514.08634329296</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
@@ -13804,17 +13687,17 @@
       <c r="E7" s="156"/>
       <c r="F7" s="156">
         <f>'P&amp;L Statement'!AB39</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="G7" s="156"/>
       <c r="H7" s="155">
         <f>'P&amp;L Statement'!AG39</f>
-        <v>151697.83008511711</v>
+        <v>218286.58008511714</v>
       </c>
       <c r="I7" s="156"/>
       <c r="J7" s="155">
         <f>'P&amp;L Statement'!AL39</f>
-        <v>633617.2341957693</v>
+        <v>779619.2341957693</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -13833,17 +13716,17 @@
       <c r="E8" s="158"/>
       <c r="F8" s="158">
         <f>'P&amp;L Statement'!AB41</f>
-        <v>-21319.317354296873</v>
+        <v>-7705.6173542968754</v>
       </c>
       <c r="G8" s="158"/>
       <c r="H8" s="158">
         <f>'P&amp;L Statement'!AG41</f>
-        <v>122875.24236894486</v>
+        <v>176812.12986894487</v>
       </c>
       <c r="I8" s="158"/>
       <c r="J8" s="158">
         <f>'P&amp;L Statement'!AL41</f>
-        <v>513229.9596985731</v>
+        <v>631491.5796985731</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
@@ -13852,31 +13735,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="160" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="160" t="s">
-        <v>110</v>
       </c>
       <c r="D10" s="159" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="159" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="159" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="161" t="s">
         <v>4</v>
@@ -13894,20 +13777,20 @@
       <c r="C11" s="162"/>
       <c r="D11" s="163">
         <f>B14</f>
-        <v>90476.014095607723</v>
+        <v>476.01409560771526</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="163">
         <f>D14</f>
-        <v>43220.267419826472</v>
+        <v>53220.267419826458</v>
       </c>
       <c r="G11" s="164">
-        <f t="shared" ref="E11:J11" si="0">E14</f>
+        <f t="shared" ref="G11:J11" si="0">E14</f>
         <v>0</v>
       </c>
       <c r="H11" s="164">
         <f t="shared" si="0"/>
-        <v>21900.9500655296</v>
+        <v>45514.650065529582</v>
       </c>
       <c r="I11" s="164">
         <f t="shared" si="0"/>
@@ -13915,7 +13798,7 @@
       </c>
       <c r="J11" s="165">
         <f t="shared" si="0"/>
-        <v>173598.78015064669</v>
+        <v>263801.2301506467</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
@@ -13925,22 +13808,22 @@
       </c>
       <c r="B12" s="166">
         <f>SUM('P&amp;L Statement'!F46:Q46)</f>
-        <v>145212.18144427566</v>
+        <v>55212.181444275622</v>
       </c>
       <c r="C12" s="166"/>
       <c r="D12" s="167">
         <f>SUM('P&amp;L Statement'!S46:V46)</f>
-        <v>99066.3046875</v>
+        <v>199066.3046875</v>
       </c>
       <c r="E12" s="167"/>
       <c r="F12" s="167">
         <f>SUM('P&amp;L Statement'!X46:AA46)</f>
-        <v>232052.50078124998</v>
+        <v>245852.50078124998</v>
       </c>
       <c r="G12" s="167"/>
       <c r="H12" s="167">
         <f>SUM('P&amp;L Statement'!AC46:AF46)</f>
-        <v>546560.75179687492</v>
+        <v>614060.75179687492</v>
       </c>
       <c r="I12" s="167">
         <f>SUM('[1]Cash Flow'!W39:Z39)</f>
@@ -13948,7 +13831,7 @@
       </c>
       <c r="J12" s="168">
         <f>SUM('P&amp;L Statement'!AH46:AK46)</f>
-        <v>1257339.7291328122</v>
+        <v>1405339.7291328122</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
@@ -13968,17 +13851,17 @@
       <c r="E13" s="169"/>
       <c r="F13" s="169">
         <f>SUM('P&amp;L Statement'!X47:AA47)</f>
-        <v>253371.81813554687</v>
+        <v>253558.11813554686</v>
       </c>
       <c r="G13" s="169"/>
       <c r="H13" s="169">
         <f>SUM('P&amp;L Statement'!AC47:AF47)</f>
-        <v>394862.92171175778</v>
+        <v>395774.17171175778</v>
       </c>
       <c r="I13" s="169"/>
       <c r="J13" s="170">
         <f>SUM('P&amp;L Statement'!AH47:AK47)</f>
-        <v>623722.49493704294</v>
+        <v>625720.49493704294</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -13988,22 +13871,22 @@
       </c>
       <c r="B14" s="158">
         <f>'P&amp;L Statement'!Q48</f>
-        <v>90476.014095607723</v>
+        <v>476.01409560771526</v>
       </c>
       <c r="C14" s="158"/>
       <c r="D14" s="158">
         <f>'P&amp;L Statement'!V48</f>
-        <v>43220.267419826472</v>
+        <v>53220.267419826458</v>
       </c>
       <c r="E14" s="158"/>
       <c r="F14" s="158">
         <f>'P&amp;L Statement'!AA48</f>
-        <v>21900.9500655296</v>
+        <v>45514.650065529582</v>
       </c>
       <c r="G14" s="158"/>
       <c r="H14" s="158">
         <f>'P&amp;L Statement'!AF48</f>
-        <v>173598.78015064669</v>
+        <v>263801.2301506467</v>
       </c>
       <c r="I14" s="158">
         <f>'[1]Cash Flow'!Z41</f>
@@ -14011,7 +13894,7 @@
       </c>
       <c r="J14" s="171">
         <f>'P&amp;L Statement'!AK48</f>
-        <v>807216.01434641599</v>
+        <v>1043420.4643464159</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.5">
